--- a/results/11-2020/fim_noaddons.xlsx
+++ b/results/11-2020/fim_noaddons.xlsx
@@ -1094,7 +1094,7 @@
         <v>63</v>
       </c>
       <c r="AI2">
-        <v>48.1</v>
+        <v>51</v>
       </c>
       <c r="AJ2">
         <v>104.6</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>36.1</v>
+        <v>38.7</v>
       </c>
       <c r="AV2">
         <v>90.59999999999999</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="BG2">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="BH2">
         <v>14</v>
@@ -1291,7 +1291,7 @@
         <v>73.09999999999999</v>
       </c>
       <c r="AI3">
-        <v>56.7</v>
+        <v>60.59999999999999</v>
       </c>
       <c r="AJ3">
         <v>105.5</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>43.212</v>
+        <v>46.756</v>
       </c>
       <c r="AV3">
         <v>91.40000000000001</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="BG3">
-        <v>13.488</v>
+        <v>13.844</v>
       </c>
       <c r="BH3">
         <v>14.1</v>
@@ -1581,7 +1581,7 @@
         <v>73.5</v>
       </c>
       <c r="AI4">
-        <v>56</v>
+        <v>60.6</v>
       </c>
       <c r="AJ4">
         <v>100.7</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>41.272</v>
+        <v>45.436</v>
       </c>
       <c r="AV4">
         <v>86.3</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="BG4">
-        <v>14.728</v>
+        <v>15.164</v>
       </c>
       <c r="BH4">
         <v>14.3</v>
@@ -1871,7 +1871,7 @@
         <v>77.40000000000001</v>
       </c>
       <c r="AI5">
-        <v>58.6</v>
+        <v>64</v>
       </c>
       <c r="AJ5">
         <v>101.5</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>42.428</v>
+        <v>47.364</v>
       </c>
       <c r="AV5">
         <v>87.2</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="BG5">
-        <v>16.072</v>
+        <v>16.536</v>
       </c>
       <c r="BH5">
         <v>14.4</v>
@@ -2164,7 +2164,7 @@
         <v>79.3</v>
       </c>
       <c r="AI6">
-        <v>59.59999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="AJ6">
         <v>98.3</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>42.752</v>
+        <v>47.976</v>
       </c>
       <c r="AV6">
         <v>83.59999999999999</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="BG6">
-        <v>16.848</v>
+        <v>17.324</v>
       </c>
       <c r="BH6">
         <v>14.7</v>
@@ -2469,7 +2469,7 @@
         <v>86.90000000000001</v>
       </c>
       <c r="AI7">
-        <v>66.00000000000001</v>
+        <v>72.30000000000001</v>
       </c>
       <c r="AJ7">
         <v>100.7</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>48.5</v>
+        <v>54.2</v>
       </c>
       <c r="AV7">
         <v>85.09999999999999</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="BG7">
-        <v>17.6</v>
+        <v>18.2</v>
       </c>
       <c r="BH7">
         <v>15.6</v>
@@ -2774,7 +2774,7 @@
         <v>86.90000000000001</v>
       </c>
       <c r="AI8">
-        <v>65.60000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="AJ8">
         <v>102.3</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>47.73200000000001</v>
+        <v>53.41600000000001</v>
       </c>
       <c r="AV8">
         <v>86.3</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="BG8">
-        <v>17.768</v>
+        <v>18.384</v>
       </c>
       <c r="BH8">
         <v>16</v>
@@ -3088,7 +3088,7 @@
         <v>88.5</v>
       </c>
       <c r="AI9">
-        <v>66.60000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="AJ9">
         <v>105.5</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="AU9">
-        <v>48.45999999999999</v>
+        <v>54.17999999999999</v>
       </c>
       <c r="AV9">
         <v>88.2</v>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="BG9">
-        <v>18.14</v>
+        <v>18.72</v>
       </c>
       <c r="BH9">
         <v>17.3</v>
@@ -3402,7 +3402,7 @@
         <v>91.40000000000001</v>
       </c>
       <c r="AI10">
-        <v>68.60000000000001</v>
+        <v>75.10000000000001</v>
       </c>
       <c r="AJ10">
         <v>119.8</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>49.836</v>
+        <v>55.768</v>
       </c>
       <c r="AV10">
         <v>100.3</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="BG10">
-        <v>18.764</v>
+        <v>19.33199999999999</v>
       </c>
       <c r="BH10">
         <v>19.5</v>
@@ -3749,7 +3749,7 @@
         <v>91.90000000000001</v>
       </c>
       <c r="AI11">
-        <v>68.3</v>
+        <v>75.2</v>
       </c>
       <c r="AJ11">
         <v>123.4</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>49.11600000000001</v>
+        <v>55.30800000000001</v>
       </c>
       <c r="AV11">
         <v>102.4</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="BG11">
-        <v>19.084</v>
+        <v>19.792</v>
       </c>
       <c r="BH11">
         <v>21</v>
@@ -4096,7 +4096,7 @@
         <v>92.90000000000001</v>
       </c>
       <c r="AI12">
-        <v>69.60000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="AJ12">
         <v>124.3</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>51.032</v>
+        <v>56.21599999999999</v>
       </c>
       <c r="AV12">
         <v>103.1</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="BG12">
-        <v>18.468</v>
+        <v>19.084</v>
       </c>
       <c r="BH12">
         <v>21.2</v>
@@ -4443,7 +4443,7 @@
         <v>103.1</v>
       </c>
       <c r="AI13">
-        <v>80.39999999999999</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="AJ13">
         <v>127.1</v>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>62.38399999999999</v>
+        <v>66.892</v>
       </c>
       <c r="AV13">
         <v>105.3</v>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="BG13">
-        <v>18.016</v>
+        <v>18.508</v>
       </c>
       <c r="BH13">
         <v>21.8</v>
@@ -4793,7 +4793,7 @@
         <v>105.4</v>
       </c>
       <c r="AI14">
-        <v>82.30000000000001</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="AJ14">
         <v>126.4</v>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>64.324</v>
+        <v>68.512</v>
       </c>
       <c r="AV14">
         <v>104.5</v>
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="BG14">
-        <v>17.976</v>
+        <v>18.388</v>
       </c>
       <c r="BH14">
         <v>21.9</v>
@@ -5170,7 +5170,7 @@
         <v>107.6</v>
       </c>
       <c r="AI15">
-        <v>83.5</v>
+        <v>88</v>
       </c>
       <c r="AJ15">
         <v>129.2</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>65.40000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="AV15">
         <v>106.9</v>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="BG15">
-        <v>18.1</v>
+        <v>18.5</v>
       </c>
       <c r="BH15">
         <v>22.3</v>
@@ -5547,7 +5547,7 @@
         <v>109.2</v>
       </c>
       <c r="AI16">
-        <v>84.5</v>
+        <v>89</v>
       </c>
       <c r="AJ16">
         <v>134.1</v>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="AU16">
-        <v>66.376</v>
+        <v>70.488</v>
       </c>
       <c r="AV16">
         <v>111</v>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="BG16">
-        <v>18.224</v>
+        <v>18.61199999999999</v>
       </c>
       <c r="BH16">
         <v>23.1</v>
@@ -5924,7 +5924,7 @@
         <v>112.3</v>
       </c>
       <c r="AI17">
-        <v>86.49999999999999</v>
+        <v>91.19999999999999</v>
       </c>
       <c r="AJ17">
         <v>140</v>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="AU17">
-        <v>67.59599999999999</v>
+        <v>71.94799999999999</v>
       </c>
       <c r="AV17">
         <v>116</v>
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="BG17">
-        <v>18.904</v>
+        <v>19.252</v>
       </c>
       <c r="BH17">
         <v>24</v>
@@ -6301,7 +6301,7 @@
         <v>117.5</v>
       </c>
       <c r="AI18">
-        <v>89.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AJ18">
         <v>142.8</v>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="AU18">
-        <v>71.52799999999999</v>
+        <v>76.964</v>
       </c>
       <c r="AV18">
         <v>119.5</v>
@@ -6373,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="BG18">
-        <v>18.272</v>
+        <v>18.636</v>
       </c>
       <c r="BH18">
         <v>23.3</v>
@@ -6678,7 +6678,7 @@
         <v>125.4</v>
       </c>
       <c r="AI19">
-        <v>95.2</v>
+        <v>101.9</v>
       </c>
       <c r="AJ19">
         <v>148.9</v>
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="AU19">
-        <v>75.70799999999998</v>
+        <v>82.00399999999999</v>
       </c>
       <c r="AV19">
         <v>124.8</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="BG19">
-        <v>19.492</v>
+        <v>19.896</v>
       </c>
       <c r="BH19">
         <v>24.1</v>
@@ -7055,7 +7055,7 @@
         <v>132.2</v>
       </c>
       <c r="AI20">
-        <v>100.8</v>
+        <v>107.7</v>
       </c>
       <c r="AJ20">
         <v>154.9</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="AU20">
-        <v>80.44400000000002</v>
+        <v>86.87200000000001</v>
       </c>
       <c r="AV20">
         <v>129.7</v>
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="BG20">
-        <v>20.45599999999999</v>
+        <v>20.92799999999999</v>
       </c>
       <c r="BH20">
         <v>25.2</v>
@@ -7432,7 +7432,7 @@
         <v>139.1</v>
       </c>
       <c r="AI21">
-        <v>104.7</v>
+        <v>113.3</v>
       </c>
       <c r="AJ21">
         <v>157.6</v>
@@ -7468,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="AU21">
-        <v>81.95999999999999</v>
+        <v>90.08</v>
       </c>
       <c r="AV21">
         <v>132</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="BG21">
-        <v>22.74</v>
+        <v>23.22</v>
       </c>
       <c r="BH21">
         <v>25.6</v>
@@ -7809,7 +7809,7 @@
         <v>149.8</v>
       </c>
       <c r="AI22">
-        <v>107.8</v>
+        <v>122</v>
       </c>
       <c r="AJ22">
         <v>158</v>
@@ -7845,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="AU22">
-        <v>79.47999999999999</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="AV22">
         <v>132.3</v>
@@ -7881,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="BG22">
-        <v>28.22000000000001</v>
+        <v>29.16</v>
       </c>
       <c r="BH22">
         <v>25.7</v>
@@ -8186,7 +8186,7 @@
         <v>164.6</v>
       </c>
       <c r="AI23">
-        <v>116.2</v>
+        <v>135.6</v>
       </c>
       <c r="AJ23">
         <v>121.1</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AU23">
-        <v>82.90399999999998</v>
+        <v>100.952</v>
       </c>
       <c r="AV23">
         <v>94.59999999999999</v>
@@ -8258,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="BG23">
-        <v>33.396</v>
+        <v>34.748</v>
       </c>
       <c r="BH23">
         <v>26.5</v>
@@ -8563,7 +8563,7 @@
         <v>167.7</v>
       </c>
       <c r="AI24">
-        <v>117.7</v>
+        <v>137.9</v>
       </c>
       <c r="AJ24">
         <v>152.8</v>
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="AU24">
-        <v>84.83199999999999</v>
+        <v>102.816</v>
       </c>
       <c r="AV24">
         <v>125.7</v>
@@ -8635,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="BG24">
-        <v>32.968</v>
+        <v>35.184</v>
       </c>
       <c r="BH24">
         <v>27.2</v>
@@ -8940,7 +8940,7 @@
         <v>170.4</v>
       </c>
       <c r="AI25">
-        <v>120.2</v>
+        <v>139</v>
       </c>
       <c r="AJ25">
         <v>158.5</v>
@@ -8976,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="AU25">
-        <v>87.20000000000002</v>
+        <v>104.1</v>
       </c>
       <c r="AV25">
         <v>130.4</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="BG25">
-        <v>33</v>
+        <v>34.90000000000001</v>
       </c>
       <c r="BH25">
         <v>28.2</v>
@@ -9317,7 +9317,7 @@
         <v>174.7</v>
       </c>
       <c r="AI26">
-        <v>124.2</v>
+        <v>141.9</v>
       </c>
       <c r="AJ26">
         <v>162.5</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="AU26">
-        <v>92.468</v>
+        <v>108.084</v>
       </c>
       <c r="AV26">
         <v>133</v>
@@ -9389,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="BG26">
-        <v>31.732</v>
+        <v>33.816</v>
       </c>
       <c r="BH26">
         <v>29.5</v>
@@ -9694,7 +9694,7 @@
         <v>173.1</v>
       </c>
       <c r="AI27">
-        <v>123.5</v>
+        <v>139.8</v>
       </c>
       <c r="AJ27">
         <v>169.3</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="AU27">
-        <v>92.408</v>
+        <v>106.804</v>
       </c>
       <c r="AV27">
         <v>138.7</v>
@@ -9766,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="BG27">
-        <v>30.992</v>
+        <v>32.896</v>
       </c>
       <c r="BH27">
         <v>30.6</v>
@@ -10071,7 +10071,7 @@
         <v>180.1</v>
       </c>
       <c r="AI28">
-        <v>128.9</v>
+        <v>145</v>
       </c>
       <c r="AJ28">
         <v>176.1</v>
@@ -10107,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="AU28">
-        <v>99.04000000000001</v>
+        <v>112.62</v>
       </c>
       <c r="AV28">
         <v>144.5</v>
@@ -10143,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="BG28">
-        <v>29.86</v>
+        <v>32.38</v>
       </c>
       <c r="BH28">
         <v>31.6</v>
@@ -10448,7 +10448,7 @@
         <v>182.7</v>
       </c>
       <c r="AI29">
-        <v>131.3</v>
+        <v>146.8</v>
       </c>
       <c r="AJ29">
         <v>182.7</v>
@@ -10484,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="AU29">
-        <v>100.644</v>
+        <v>114.172</v>
       </c>
       <c r="AV29">
         <v>150.1</v>
@@ -10520,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="BG29">
-        <v>30.656</v>
+        <v>32.628</v>
       </c>
       <c r="BH29">
         <v>32.6</v>
@@ -10825,7 +10825,7 @@
         <v>185.5</v>
       </c>
       <c r="AI30">
-        <v>132.9</v>
+        <v>148.4</v>
       </c>
       <c r="AJ30">
         <v>188.8</v>
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="AU30">
-        <v>102.108</v>
+        <v>115.504</v>
       </c>
       <c r="AV30">
         <v>155.3</v>
@@ -10897,7 +10897,7 @@
         <v>0</v>
       </c>
       <c r="BG30">
-        <v>30.79200000000001</v>
+        <v>32.89600000000001</v>
       </c>
       <c r="BH30">
         <v>33.5</v>
@@ -11202,7 +11202,7 @@
         <v>186.4</v>
       </c>
       <c r="AI31">
-        <v>133.9</v>
+        <v>147.2</v>
       </c>
       <c r="AJ31">
         <v>195.7</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="AU31">
-        <v>103.648</v>
+        <v>115.424</v>
       </c>
       <c r="AV31">
         <v>161</v>
@@ -11274,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="BG31">
-        <v>30.252</v>
+        <v>31.776</v>
       </c>
       <c r="BH31">
         <v>34.7</v>
@@ -11579,7 +11579,7 @@
         <v>191.7</v>
       </c>
       <c r="AI32">
-        <v>140.6</v>
+        <v>152.5</v>
       </c>
       <c r="AJ32">
         <v>198.6</v>
@@ -11615,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="AU32">
-        <v>111.028</v>
+        <v>121.464</v>
       </c>
       <c r="AV32">
         <v>162.6</v>
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="BG32">
-        <v>29.572</v>
+        <v>31.036</v>
       </c>
       <c r="BH32">
         <v>35.9</v>
@@ -11956,7 +11956,7 @@
         <v>194.3</v>
       </c>
       <c r="AI33">
-        <v>142.7</v>
+        <v>154.5</v>
       </c>
       <c r="AJ33">
         <v>208.5</v>
@@ -11992,7 +11992,7 @@
         <v>0</v>
       </c>
       <c r="AU33">
-        <v>112.252</v>
+        <v>122.776</v>
       </c>
       <c r="AV33">
         <v>171.2</v>
@@ -12028,7 +12028,7 @@
         <v>0</v>
       </c>
       <c r="BG33">
-        <v>30.448</v>
+        <v>31.724</v>
       </c>
       <c r="BH33">
         <v>37.3</v>
@@ -12333,7 +12333,7 @@
         <v>197.7</v>
       </c>
       <c r="AI34">
-        <v>145.2</v>
+        <v>156</v>
       </c>
       <c r="AJ34">
         <v>212</v>
@@ -12369,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="AU34">
-        <v>115.14</v>
+        <v>124.72</v>
       </c>
       <c r="AV34">
         <v>173.4</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="BG34">
-        <v>30.06</v>
+        <v>31.28</v>
       </c>
       <c r="BH34">
         <v>38.6</v>
@@ -12710,7 +12710,7 @@
         <v>199</v>
       </c>
       <c r="AI35">
-        <v>146</v>
+        <v>155.4</v>
       </c>
       <c r="AJ35">
         <v>223.1</v>
@@ -12746,7 +12746,7 @@
         <v>0</v>
       </c>
       <c r="AU35">
-        <v>115.832</v>
+        <v>124.416</v>
       </c>
       <c r="AV35">
         <v>182.9</v>
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="BG35">
-        <v>30.168</v>
+        <v>30.984</v>
       </c>
       <c r="BH35">
         <v>40.1</v>
@@ -13087,7 +13087,7 @@
         <v>207.1</v>
       </c>
       <c r="AI36">
-        <v>153.2</v>
+        <v>162.2</v>
       </c>
       <c r="AJ36">
         <v>236.3</v>
@@ -13123,7 +13123,7 @@
         <v>0</v>
       </c>
       <c r="AU36">
-        <v>123.148</v>
+        <v>131.524</v>
       </c>
       <c r="AV36">
         <v>195.4</v>
@@ -13159,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="BG36">
-        <v>30.15199999999999</v>
+        <v>30.776</v>
       </c>
       <c r="BH36">
         <v>40.9</v>
@@ -13464,7 +13464,7 @@
         <v>209.9</v>
       </c>
       <c r="AI37">
-        <v>154.9</v>
+        <v>163.4</v>
       </c>
       <c r="AJ37">
         <v>247.2</v>
@@ -13500,7 +13500,7 @@
         <v>0</v>
       </c>
       <c r="AU37">
-        <v>125.484</v>
+        <v>133.392</v>
       </c>
       <c r="AV37">
         <v>205.1</v>
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="BG37">
-        <v>29.51600000000001</v>
+        <v>30.108</v>
       </c>
       <c r="BH37">
         <v>42.1</v>
@@ -13841,7 +13841,7 @@
         <v>214.9</v>
       </c>
       <c r="AI38">
-        <v>157.5</v>
+        <v>166.9</v>
       </c>
       <c r="AJ38">
         <v>253.6</v>
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="AU38">
-        <v>126.924</v>
+        <v>135.712</v>
       </c>
       <c r="AV38">
         <v>211.6</v>
@@ -13913,7 +13913,7 @@
         <v>0</v>
       </c>
       <c r="BG38">
-        <v>30.576</v>
+        <v>31.188</v>
       </c>
       <c r="BH38">
         <v>42</v>
@@ -14218,7 +14218,7 @@
         <v>219.2</v>
       </c>
       <c r="AI39">
-        <v>160</v>
+        <v>169.2</v>
       </c>
       <c r="AJ39">
         <v>262</v>
@@ -14254,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="AU39">
-        <v>129.244</v>
+        <v>137.872</v>
       </c>
       <c r="AV39">
         <v>219.9</v>
@@ -14290,7 +14290,7 @@
         <v>0</v>
       </c>
       <c r="BG39">
-        <v>30.756</v>
+        <v>31.328</v>
       </c>
       <c r="BH39">
         <v>42.1</v>
@@ -14595,7 +14595,7 @@
         <v>234.6</v>
       </c>
       <c r="AI40">
-        <v>173.4</v>
+        <v>183</v>
       </c>
       <c r="AJ40">
         <v>274.8</v>
@@ -14631,7 +14631,7 @@
         <v>0</v>
       </c>
       <c r="AU40">
-        <v>141.496</v>
+        <v>150.548</v>
       </c>
       <c r="AV40">
         <v>229.4</v>
@@ -14667,7 +14667,7 @@
         <v>0</v>
       </c>
       <c r="BG40">
-        <v>31.904</v>
+        <v>32.452</v>
       </c>
       <c r="BH40">
         <v>45.4</v>
@@ -14972,7 +14972,7 @@
         <v>240.7</v>
       </c>
       <c r="AI41">
-        <v>175.7</v>
+        <v>186.3</v>
       </c>
       <c r="AJ41">
         <v>285.2</v>
@@ -15008,7 +15008,7 @@
         <v>0</v>
       </c>
       <c r="AU41">
-        <v>141.9360000000001</v>
+        <v>151.8680000000001</v>
       </c>
       <c r="AV41">
         <v>238.6</v>
@@ -15044,7 +15044,7 @@
         <v>0</v>
       </c>
       <c r="BG41">
-        <v>33.764</v>
+        <v>34.432</v>
       </c>
       <c r="BH41">
         <v>46.6</v>
@@ -15349,7 +15349,7 @@
         <v>251.2</v>
       </c>
       <c r="AI42">
-        <v>182.2</v>
+        <v>194.2</v>
       </c>
       <c r="AJ42">
         <v>284.8</v>
@@ -15385,7 +15385,7 @@
         <v>0</v>
       </c>
       <c r="AU42">
-        <v>145.892</v>
+        <v>157.196</v>
       </c>
       <c r="AV42">
         <v>238.3</v>
@@ -15421,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="BG42">
-        <v>36.30800000000001</v>
+        <v>37.004</v>
       </c>
       <c r="BH42">
         <v>46.6</v>
@@ -15726,7 +15726,7 @@
         <v>256.2</v>
       </c>
       <c r="AI43">
-        <v>183</v>
+        <v>198.7</v>
       </c>
       <c r="AJ43">
         <v>292.2</v>
@@ -15762,7 +15762,7 @@
         <v>0</v>
       </c>
       <c r="AU43">
-        <v>141.92</v>
+        <v>156.96</v>
       </c>
       <c r="AV43">
         <v>244.2</v>
@@ -15798,7 +15798,7 @@
         <v>0</v>
       </c>
       <c r="BG43">
-        <v>41.17999999999999</v>
+        <v>41.83999999999999</v>
       </c>
       <c r="BH43">
         <v>48</v>
@@ -16103,7 +16103,7 @@
         <v>287.9</v>
       </c>
       <c r="AI44">
-        <v>207.7</v>
+        <v>226.7</v>
       </c>
       <c r="AJ44">
         <v>302.2</v>
@@ -16139,7 +16139,7 @@
         <v>0</v>
       </c>
       <c r="AU44">
-        <v>162.272</v>
+        <v>180.336</v>
       </c>
       <c r="AV44">
         <v>252.8</v>
@@ -16175,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="BG44">
-        <v>45.328</v>
+        <v>46.264</v>
       </c>
       <c r="BH44">
         <v>49.4</v>
@@ -16480,7 +16480,7 @@
         <v>290.7</v>
       </c>
       <c r="AI45">
-        <v>208.5</v>
+        <v>226.3</v>
       </c>
       <c r="AJ45">
         <v>318.9</v>
@@ -16516,7 +16516,7 @@
         <v>0</v>
       </c>
       <c r="AU45">
-        <v>163.768</v>
+        <v>180.684</v>
       </c>
       <c r="AV45">
         <v>267.2</v>
@@ -16552,7 +16552,7 @@
         <v>0</v>
       </c>
       <c r="BG45">
-        <v>44.73199999999999</v>
+        <v>45.61599999999999</v>
       </c>
       <c r="BH45">
         <v>51.6</v>
@@ -16857,7 +16857,7 @@
         <v>296.1</v>
       </c>
       <c r="AI46">
-        <v>212.5</v>
+        <v>228.9</v>
       </c>
       <c r="AJ46">
         <v>330.9</v>
@@ -16893,7 +16893,7 @@
         <v>0</v>
       </c>
       <c r="AU46">
-        <v>168.68</v>
+        <v>184.24</v>
       </c>
       <c r="AV46">
         <v>278.4</v>
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="BG46">
-        <v>43.82</v>
+        <v>44.66</v>
       </c>
       <c r="BH46">
         <v>52.5</v>
@@ -17234,7 +17234,7 @@
         <v>299</v>
       </c>
       <c r="AI47">
-        <v>212.8</v>
+        <v>228.3</v>
       </c>
       <c r="AJ47">
         <v>342.7</v>
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="AU47">
-        <v>169.704</v>
+        <v>184.352</v>
       </c>
       <c r="AV47">
         <v>289</v>
@@ -17306,7 +17306,7 @@
         <v>0</v>
       </c>
       <c r="BG47">
-        <v>43.096</v>
+        <v>43.94800000000001</v>
       </c>
       <c r="BH47">
         <v>53.7</v>
@@ -17611,7 +17611,7 @@
         <v>317</v>
       </c>
       <c r="AI48">
-        <v>229.3</v>
+        <v>244.3</v>
       </c>
       <c r="AJ48">
         <v>356.9</v>
@@ -17647,7 +17647,7 @@
         <v>0</v>
       </c>
       <c r="AU48">
-        <v>186.476</v>
+        <v>200.688</v>
       </c>
       <c r="AV48">
         <v>301.4</v>
@@ -17683,7 +17683,7 @@
         <v>0</v>
       </c>
       <c r="BG48">
-        <v>42.82400000000001</v>
+        <v>43.61200000000001</v>
       </c>
       <c r="BH48">
         <v>55.5</v>
@@ -17988,7 +17988,7 @@
         <v>319.2</v>
       </c>
       <c r="AI49">
-        <v>228.3</v>
+        <v>244.9</v>
       </c>
       <c r="AJ49">
         <v>352.7</v>
@@ -18024,7 +18024,7 @@
         <v>0</v>
       </c>
       <c r="AU49">
-        <v>183.344</v>
+        <v>199.272</v>
       </c>
       <c r="AV49">
         <v>295.9</v>
@@ -18060,7 +18060,7 @@
         <v>0</v>
       </c>
       <c r="BG49">
-        <v>44.956</v>
+        <v>45.628</v>
       </c>
       <c r="BH49">
         <v>56.8</v>
@@ -18365,7 +18365,7 @@
         <v>324.3</v>
       </c>
       <c r="AI50">
-        <v>228.2</v>
+        <v>247.3</v>
       </c>
       <c r="AJ50">
         <v>352.5</v>
@@ -18401,7 +18401,7 @@
         <v>0</v>
       </c>
       <c r="AU50">
-        <v>180.056</v>
+        <v>198.528</v>
       </c>
       <c r="AV50">
         <v>295.2</v>
@@ -18437,7 +18437,7 @@
         <v>0</v>
       </c>
       <c r="BG50">
-        <v>48.04400000000001</v>
+        <v>48.67200000000001</v>
       </c>
       <c r="BH50">
         <v>57.3</v>
@@ -18742,7 +18742,7 @@
         <v>333.2</v>
       </c>
       <c r="AI51">
-        <v>229</v>
+        <v>252.9</v>
       </c>
       <c r="AJ51">
         <v>359.7</v>
@@ -18778,7 +18778,7 @@
         <v>0</v>
       </c>
       <c r="AU51">
-        <v>175.724</v>
+        <v>198.912</v>
       </c>
       <c r="AV51">
         <v>301.7</v>
@@ -18814,7 +18814,7 @@
         <v>0</v>
       </c>
       <c r="BG51">
-        <v>53.276</v>
+        <v>53.988</v>
       </c>
       <c r="BH51">
         <v>58.1</v>
@@ -19119,7 +19119,7 @@
         <v>349.7</v>
       </c>
       <c r="AI52">
-        <v>241</v>
+        <v>267.1</v>
       </c>
       <c r="AJ52">
         <v>350.1</v>
@@ -19155,7 +19155,7 @@
         <v>0</v>
       </c>
       <c r="AU52">
-        <v>185.46</v>
+        <v>210.58</v>
       </c>
       <c r="AV52">
         <v>289.7</v>
@@ -19191,7 +19191,7 @@
         <v>0</v>
       </c>
       <c r="BG52">
-        <v>55.44</v>
+        <v>56.42</v>
       </c>
       <c r="BH52">
         <v>60.4</v>
@@ -19496,7 +19496,7 @@
         <v>365.2</v>
       </c>
       <c r="AI53">
-        <v>248.9999999999999</v>
+        <v>280.8</v>
       </c>
       <c r="AJ53">
         <v>356.6</v>
@@ -19532,7 +19532,7 @@
         <v>0</v>
       </c>
       <c r="AU53">
-        <v>195.552</v>
+        <v>222.276</v>
       </c>
       <c r="AV53">
         <v>295.8</v>
@@ -19568,7 +19568,7 @@
         <v>0</v>
       </c>
       <c r="BG53">
-        <v>53.44799999999999</v>
+        <v>58.52399999999999</v>
       </c>
       <c r="BH53">
         <v>60.8</v>
@@ -19873,7 +19873,7 @@
         <v>368</v>
       </c>
       <c r="AI54">
-        <v>249.3</v>
+        <v>279.6</v>
       </c>
       <c r="AJ54">
         <v>350.9</v>
@@ -19909,7 +19909,7 @@
         <v>0</v>
       </c>
       <c r="AU54">
-        <v>198.448</v>
+        <v>222.724</v>
       </c>
       <c r="AV54">
         <v>289.5</v>
@@ -19945,7 +19945,7 @@
         <v>0</v>
       </c>
       <c r="BG54">
-        <v>50.85199999999999</v>
+        <v>56.87599999999999</v>
       </c>
       <c r="BH54">
         <v>61.3</v>
@@ -20250,7 +20250,7 @@
         <v>373.7</v>
       </c>
       <c r="AI55">
-        <v>251.3</v>
+        <v>283.4</v>
       </c>
       <c r="AJ55">
         <v>359.6</v>
@@ -20286,7 +20286,7 @@
         <v>0</v>
       </c>
       <c r="AU55">
-        <v>203.444</v>
+        <v>226.972</v>
       </c>
       <c r="AV55">
         <v>295.3</v>
@@ -20322,7 +20322,7 @@
         <v>0</v>
       </c>
       <c r="BG55">
-        <v>47.85600000000001</v>
+        <v>56.42800000000001</v>
       </c>
       <c r="BH55">
         <v>64.3</v>
@@ -20627,7 +20627,7 @@
         <v>368.5</v>
       </c>
       <c r="AI56">
-        <v>252.5</v>
+        <v>275.8</v>
       </c>
       <c r="AJ56">
         <v>345.4</v>
@@ -20663,7 +20663,7 @@
         <v>0</v>
       </c>
       <c r="AU56">
-        <v>207.112</v>
+        <v>224.856</v>
       </c>
       <c r="AV56">
         <v>277.3</v>
@@ -20699,7 +20699,7 @@
         <v>0</v>
       </c>
       <c r="BG56">
-        <v>45.38800000000001</v>
+        <v>50.944</v>
       </c>
       <c r="BH56">
         <v>68.09999999999999</v>
@@ -21004,7 +21004,7 @@
         <v>371.8</v>
       </c>
       <c r="AI57">
-        <v>256.5</v>
+        <v>276.5</v>
       </c>
       <c r="AJ57">
         <v>355.7</v>
@@ -21040,7 +21040,7 @@
         <v>0</v>
       </c>
       <c r="AU57">
-        <v>213.116</v>
+        <v>228.108</v>
       </c>
       <c r="AV57">
         <v>284.9</v>
@@ -21076,7 +21076,7 @@
         <v>0</v>
       </c>
       <c r="BG57">
-        <v>43.38400000000001</v>
+        <v>48.39200000000001</v>
       </c>
       <c r="BH57">
         <v>70.7</v>
@@ -21381,7 +21381,7 @@
         <v>376.3</v>
       </c>
       <c r="AI58">
-        <v>260.8</v>
+        <v>278.1</v>
       </c>
       <c r="AJ58">
         <v>361.2</v>
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="AU58">
-        <v>217.092</v>
+        <v>230.496</v>
       </c>
       <c r="AV58">
         <v>287.9</v>
@@ -21453,7 +21453,7 @@
         <v>0</v>
       </c>
       <c r="BG58">
-        <v>43.70799999999999</v>
+        <v>47.60399999999999</v>
       </c>
       <c r="BH58">
         <v>73.3</v>
@@ -21758,7 +21758,7 @@
         <v>379</v>
       </c>
       <c r="AI59">
-        <v>263</v>
+        <v>278.7</v>
       </c>
       <c r="AJ59">
         <v>370.4</v>
@@ -21794,7 +21794,7 @@
         <v>0</v>
       </c>
       <c r="AU59">
-        <v>218.428</v>
+        <v>231.364</v>
       </c>
       <c r="AV59">
         <v>294.6</v>
@@ -21830,7 +21830,7 @@
         <v>0</v>
       </c>
       <c r="BG59">
-        <v>44.572</v>
+        <v>47.336</v>
       </c>
       <c r="BH59">
         <v>75.8</v>
@@ -22135,7 +22135,7 @@
         <v>380.4</v>
       </c>
       <c r="AI60">
-        <v>262.9</v>
+        <v>278</v>
       </c>
       <c r="AJ60">
         <v>384.1</v>
@@ -22171,7 +22171,7 @@
         <v>0</v>
       </c>
       <c r="AU60">
-        <v>217.9320000000001</v>
+        <v>230.7160000000001</v>
       </c>
       <c r="AV60">
         <v>307.3</v>
@@ -22207,7 +22207,7 @@
         <v>0</v>
       </c>
       <c r="BG60">
-        <v>44.968</v>
+        <v>47.28400000000001</v>
       </c>
       <c r="BH60">
         <v>76.8</v>
@@ -22512,7 +22512,7 @@
         <v>387.9</v>
       </c>
       <c r="AI61">
-        <v>267.5</v>
+        <v>283.4</v>
       </c>
       <c r="AJ61">
         <v>395.9</v>
@@ -22548,7 +22548,7 @@
         <v>0</v>
       </c>
       <c r="AU61">
-        <v>221.128</v>
+        <v>234.664</v>
       </c>
       <c r="AV61">
         <v>317.7</v>
@@ -22584,7 +22584,7 @@
         <v>0</v>
       </c>
       <c r="BG61">
-        <v>46.372</v>
+        <v>48.736</v>
       </c>
       <c r="BH61">
         <v>78.2</v>
@@ -22889,7 +22889,7 @@
         <v>398.1</v>
       </c>
       <c r="AI62">
-        <v>274.9</v>
+        <v>291.8</v>
       </c>
       <c r="AJ62">
         <v>432.3</v>
@@ -22925,7 +22925,7 @@
         <v>0</v>
       </c>
       <c r="AU62">
-        <v>226.492</v>
+        <v>240.896</v>
       </c>
       <c r="AV62">
         <v>353</v>
@@ -22961,7 +22961,7 @@
         <v>0</v>
       </c>
       <c r="BG62">
-        <v>48.408</v>
+        <v>50.904</v>
       </c>
       <c r="BH62">
         <v>79.3</v>
@@ -23266,7 +23266,7 @@
         <v>400.5</v>
       </c>
       <c r="AI63">
-        <v>276.2</v>
+        <v>292.2</v>
       </c>
       <c r="AJ63">
         <v>388.5</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="AU63">
-        <v>226.22</v>
+        <v>240.66</v>
       </c>
       <c r="AV63">
         <v>307.6</v>
@@ -23338,7 +23338,7 @@
         <v>0</v>
       </c>
       <c r="BG63">
-        <v>49.97999999999999</v>
+        <v>51.53999999999999</v>
       </c>
       <c r="BH63">
         <v>80.90000000000001</v>
@@ -23643,7 +23643,7 @@
         <v>405.6</v>
       </c>
       <c r="AI64">
-        <v>280.2</v>
+        <v>295.2</v>
       </c>
       <c r="AJ64">
         <v>421.5</v>
@@ -23679,7 +23679,7 @@
         <v>0</v>
       </c>
       <c r="AU64">
-        <v>228.168</v>
+        <v>242.684</v>
       </c>
       <c r="AV64">
         <v>340</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="BG64">
-        <v>52.03199999999999</v>
+        <v>52.51599999999999</v>
       </c>
       <c r="BH64">
         <v>81.5</v>
@@ -24020,7 +24020,7 @@
         <v>408.3</v>
       </c>
       <c r="AI65">
-        <v>280</v>
+        <v>295.6</v>
       </c>
       <c r="AJ65">
         <v>428.9</v>
@@ -24056,7 +24056,7 @@
         <v>0</v>
       </c>
       <c r="AU65">
-        <v>226.724</v>
+        <v>241.812</v>
       </c>
       <c r="AV65">
         <v>345.2</v>
@@ -24092,7 +24092,7 @@
         <v>0</v>
       </c>
       <c r="BG65">
-        <v>53.27599999999998</v>
+        <v>53.78799999999998</v>
       </c>
       <c r="BH65">
         <v>83.7</v>
@@ -24397,7 +24397,7 @@
         <v>419.9</v>
       </c>
       <c r="AI66">
-        <v>289.1999999999999</v>
+        <v>304.8</v>
       </c>
       <c r="AJ66">
         <v>426.3</v>
@@ -24433,7 +24433,7 @@
         <v>0</v>
       </c>
       <c r="AU66">
-        <v>235.06</v>
+        <v>250.18</v>
       </c>
       <c r="AV66">
         <v>341.8</v>
@@ -24469,7 +24469,7 @@
         <v>0</v>
       </c>
       <c r="BG66">
-        <v>54.14</v>
+        <v>54.62</v>
       </c>
       <c r="BH66">
         <v>84.5</v>
@@ -24774,7 +24774,7 @@
         <v>425.6</v>
       </c>
       <c r="AI67">
-        <v>291.6</v>
+        <v>308</v>
       </c>
       <c r="AJ67">
         <v>429.4</v>
@@ -24810,7 +24810,7 @@
         <v>0</v>
       </c>
       <c r="AU67">
-        <v>235.8039999999999</v>
+        <v>251.652</v>
       </c>
       <c r="AV67">
         <v>344.4</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="BG67">
-        <v>55.79599999999999</v>
+        <v>56.34799999999998</v>
       </c>
       <c r="BH67">
         <v>85</v>
@@ -25151,7 +25151,7 @@
         <v>433.1</v>
       </c>
       <c r="AI68">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="AJ68">
         <v>439.5</v>
@@ -25187,7 +25187,7 @@
         <v>0</v>
       </c>
       <c r="AU68">
-        <v>238.904</v>
+        <v>255.352</v>
       </c>
       <c r="AV68">
         <v>352</v>
@@ -25223,7 +25223,7 @@
         <v>0</v>
       </c>
       <c r="BG68">
-        <v>57.096</v>
+        <v>57.648</v>
       </c>
       <c r="BH68">
         <v>87.5</v>
@@ -25528,7 +25528,7 @@
         <v>435.8</v>
       </c>
       <c r="AI69">
-        <v>296.1</v>
+        <v>313</v>
       </c>
       <c r="AJ69">
         <v>456</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="AU69">
-        <v>238.4839999999999</v>
+        <v>254.8919999999999</v>
       </c>
       <c r="AV69">
         <v>364.2</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="BG69">
-        <v>57.61600000000001</v>
+        <v>58.108</v>
       </c>
       <c r="BH69">
         <v>91.8</v>
@@ -25905,7 +25905,7 @@
         <v>441.9</v>
       </c>
       <c r="AI70">
-        <v>300.6</v>
+        <v>316.1</v>
       </c>
       <c r="AJ70">
         <v>450.7</v>
@@ -25941,7 +25941,7 @@
         <v>0</v>
       </c>
       <c r="AU70">
-        <v>244.0080000000001</v>
+        <v>259.0040000000001</v>
       </c>
       <c r="AV70">
         <v>358.3</v>
@@ -25977,7 +25977,7 @@
         <v>0</v>
       </c>
       <c r="BG70">
-        <v>56.59199999999999</v>
+        <v>57.09599999999999</v>
       </c>
       <c r="BH70">
         <v>92.40000000000001</v>
@@ -26282,7 +26282,7 @@
         <v>447.5</v>
       </c>
       <c r="AI71">
-        <v>304</v>
+        <v>319.1</v>
       </c>
       <c r="AJ71">
         <v>511.7</v>
@@ -26318,7 +26318,7 @@
         <v>0</v>
       </c>
       <c r="AU71">
-        <v>247.3400000000001</v>
+        <v>261.9200000000001</v>
       </c>
       <c r="AV71">
         <v>410.2</v>
@@ -26354,7 +26354,7 @@
         <v>0</v>
       </c>
       <c r="BG71">
-        <v>56.66000000000001</v>
+        <v>57.18000000000001</v>
       </c>
       <c r="BH71">
         <v>101.5</v>
@@ -26659,7 +26659,7 @@
         <v>449.4</v>
       </c>
       <c r="AI72">
-        <v>304.3</v>
+        <v>318.7</v>
       </c>
       <c r="AJ72">
         <v>489</v>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="AU72">
-        <v>247.616</v>
+        <v>261.6079999999999</v>
       </c>
       <c r="AV72">
         <v>394.9</v>
@@ -26731,7 +26731,7 @@
         <v>0</v>
       </c>
       <c r="BG72">
-        <v>56.784</v>
+        <v>57.192</v>
       </c>
       <c r="BH72">
         <v>94.09999999999999</v>
@@ -27036,7 +27036,7 @@
         <v>452.8</v>
       </c>
       <c r="AI73">
-        <v>306.6</v>
+        <v>320.1</v>
       </c>
       <c r="AJ73">
         <v>507</v>
@@ -27072,7 +27072,7 @@
         <v>0</v>
       </c>
       <c r="AU73">
-        <v>250.184</v>
+        <v>263.292</v>
       </c>
       <c r="AV73">
         <v>408.5</v>
@@ -27108,7 +27108,7 @@
         <v>0</v>
       </c>
       <c r="BG73">
-        <v>56.41600000000001</v>
+        <v>56.80800000000001</v>
       </c>
       <c r="BH73">
         <v>98.40000000000001</v>
@@ -27413,7 +27413,7 @@
         <v>470.3</v>
       </c>
       <c r="AI74">
-        <v>322.1</v>
+        <v>336</v>
       </c>
       <c r="AJ74">
         <v>502.1</v>
@@ -27449,7 +27449,7 @@
         <v>0</v>
       </c>
       <c r="AU74">
-        <v>264.608</v>
+        <v>278.104</v>
       </c>
       <c r="AV74">
         <v>402.6</v>
@@ -27485,7 +27485,7 @@
         <v>0</v>
       </c>
       <c r="BG74">
-        <v>57.492</v>
+        <v>57.896</v>
       </c>
       <c r="BH74">
         <v>99.40000000000001</v>
@@ -27790,7 +27790,7 @@
         <v>473.4</v>
       </c>
       <c r="AI75">
-        <v>323</v>
+        <v>336.2</v>
       </c>
       <c r="AJ75">
         <v>497.8</v>
@@ -27826,7 +27826,7 @@
         <v>0</v>
       </c>
       <c r="AU75">
-        <v>265.628</v>
+        <v>278.364</v>
       </c>
       <c r="AV75">
         <v>400.6</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="BG75">
-        <v>57.372</v>
+        <v>57.836</v>
       </c>
       <c r="BH75">
         <v>97.2</v>
@@ -28167,7 +28167,7 @@
         <v>478.8</v>
       </c>
       <c r="AI76">
-        <v>324.9</v>
+        <v>338.1</v>
       </c>
       <c r="AJ76">
         <v>506.7</v>
@@ -28203,7 +28203,7 @@
         <v>0</v>
       </c>
       <c r="AU76">
-        <v>266.748</v>
+        <v>279.524</v>
       </c>
       <c r="AV76">
         <v>402.5</v>
@@ -28239,7 +28239,7 @@
         <v>0</v>
       </c>
       <c r="BG76">
-        <v>58.15199999999999</v>
+        <v>58.57599999999999</v>
       </c>
       <c r="BH76">
         <v>104.1</v>
@@ -28544,7 +28544,7 @@
         <v>484.9</v>
       </c>
       <c r="AI77">
-        <v>326.8</v>
+        <v>339.8</v>
       </c>
       <c r="AJ77">
         <v>517.2</v>
@@ -28580,7 +28580,7 @@
         <v>0</v>
       </c>
       <c r="AU77">
-        <v>267.996</v>
+        <v>280.648</v>
       </c>
       <c r="AV77">
         <v>409.6</v>
@@ -28616,7 +28616,7 @@
         <v>0</v>
       </c>
       <c r="BG77">
-        <v>58.80400000000001</v>
+        <v>59.15200000000001</v>
       </c>
       <c r="BH77">
         <v>107.6</v>
@@ -28921,7 +28921,7 @@
         <v>508.2</v>
       </c>
       <c r="AI78">
-        <v>343.4</v>
+        <v>357</v>
       </c>
       <c r="AJ78">
         <v>552.9</v>
@@ -28957,7 +28957,7 @@
         <v>0</v>
       </c>
       <c r="AU78">
-        <v>283.7799999999999</v>
+        <v>296.9399999999999</v>
       </c>
       <c r="AV78">
         <v>439.5</v>
@@ -28993,7 +28993,7 @@
         <v>0</v>
       </c>
       <c r="BG78">
-        <v>59.52</v>
+        <v>59.95999999999999</v>
       </c>
       <c r="BH78">
         <v>113.4</v>
@@ -29298,7 +29298,7 @@
         <v>515.7</v>
       </c>
       <c r="AI79">
-        <v>345.5000000000001</v>
+        <v>359.2</v>
       </c>
       <c r="AJ79">
         <v>566.7</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="AU79">
-        <v>284.768</v>
+        <v>298.084</v>
       </c>
       <c r="AV79">
         <v>448.4</v>
@@ -29370,7 +29370,7 @@
         <v>0</v>
       </c>
       <c r="BG79">
-        <v>60.63200000000001</v>
+        <v>61.01600000000001</v>
       </c>
       <c r="BH79">
         <v>118.3</v>
@@ -29675,7 +29675,7 @@
         <v>524.7</v>
       </c>
       <c r="AI80">
-        <v>348.5</v>
+        <v>363.1</v>
       </c>
       <c r="AJ80">
         <v>571.6</v>
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="AU80">
-        <v>285.5599999999999</v>
+        <v>299.78</v>
       </c>
       <c r="AV80">
         <v>457.1</v>
@@ -29747,7 +29747,7 @@
         <v>0</v>
       </c>
       <c r="BG80">
-        <v>62.94000000000001</v>
+        <v>63.32000000000001</v>
       </c>
       <c r="BH80">
         <v>114.5</v>
@@ -30052,7 +30052,7 @@
         <v>535.8</v>
       </c>
       <c r="AI81">
-        <v>353.3</v>
+        <v>369.1</v>
       </c>
       <c r="AJ81">
         <v>579.8</v>
@@ -30088,7 +30088,7 @@
         <v>0</v>
       </c>
       <c r="AU81">
-        <v>287.84</v>
+        <v>303.22</v>
       </c>
       <c r="AV81">
         <v>467.4</v>
@@ -30124,7 +30124,7 @@
         <v>0</v>
       </c>
       <c r="BG81">
-        <v>65.36</v>
+        <v>65.78</v>
       </c>
       <c r="BH81">
         <v>112.4</v>
@@ -30429,7 +30429,7 @@
         <v>556.2</v>
       </c>
       <c r="AI82">
-        <v>368.9000000000001</v>
+        <v>385.3000000000001</v>
       </c>
       <c r="AJ82">
         <v>582.5</v>
@@ -30465,7 +30465,7 @@
         <v>0</v>
       </c>
       <c r="AU82">
-        <v>301.104</v>
+        <v>317.152</v>
       </c>
       <c r="AV82">
         <v>463.2</v>
@@ -30501,7 +30501,7 @@
         <v>0</v>
       </c>
       <c r="BG82">
-        <v>67.89599999999999</v>
+        <v>68.24799999999999</v>
       </c>
       <c r="BH82">
         <v>119.4</v>
@@ -30806,7 +30806,7 @@
         <v>567.5</v>
       </c>
       <c r="AI83">
-        <v>373.6</v>
+        <v>390.7</v>
       </c>
       <c r="AJ83">
         <v>594.6</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="AU83">
-        <v>303.636</v>
+        <v>320.268</v>
       </c>
       <c r="AV83">
         <v>472</v>
@@ -30878,7 +30878,7 @@
         <v>0</v>
       </c>
       <c r="BG83">
-        <v>70.06400000000001</v>
+        <v>70.53200000000001</v>
       </c>
       <c r="BH83">
         <v>122.6</v>
@@ -31183,7 +31183,7 @@
         <v>578.1</v>
       </c>
       <c r="AI84">
-        <v>376.3</v>
+        <v>394.5</v>
       </c>
       <c r="AJ84">
         <v>600.7</v>
@@ -31219,7 +31219,7 @@
         <v>0</v>
       </c>
       <c r="AU84">
-        <v>303.744</v>
+        <v>321.472</v>
       </c>
       <c r="AV84">
         <v>477</v>
@@ -31255,7 +31255,7 @@
         <v>0</v>
       </c>
       <c r="BG84">
-        <v>72.65600000000002</v>
+        <v>73.12800000000001</v>
       </c>
       <c r="BH84">
         <v>123.7</v>
@@ -31560,7 +31560,7 @@
         <v>596.8</v>
       </c>
       <c r="AI85">
-        <v>384.1</v>
+        <v>405.1</v>
       </c>
       <c r="AJ85">
         <v>600.8</v>
@@ -31596,7 +31596,7 @@
         <v>0</v>
       </c>
       <c r="AU85">
-        <v>307.504</v>
+        <v>327.952</v>
       </c>
       <c r="AV85">
         <v>476.2</v>
@@ -31632,7 +31632,7 @@
         <v>0</v>
       </c>
       <c r="BG85">
-        <v>76.596</v>
+        <v>77.148</v>
       </c>
       <c r="BH85">
         <v>124.6</v>
@@ -31937,7 +31937,7 @@
         <v>622.5</v>
       </c>
       <c r="AI86">
-        <v>401.6</v>
+        <v>425.9</v>
       </c>
       <c r="AJ86">
         <v>580.8</v>
@@ -31973,7 +31973,7 @@
         <v>0</v>
       </c>
       <c r="AU86">
-        <v>320.452</v>
+        <v>344.276</v>
       </c>
       <c r="AV86">
         <v>459.6</v>
@@ -32009,7 +32009,7 @@
         <v>0</v>
       </c>
       <c r="BG86">
-        <v>81.14800000000002</v>
+        <v>81.62400000000002</v>
       </c>
       <c r="BH86">
         <v>121.2</v>
@@ -32314,7 +32314,7 @@
         <v>643.5</v>
       </c>
       <c r="AI87">
-        <v>407.2</v>
+        <v>434.7</v>
       </c>
       <c r="AJ87">
         <v>585.9</v>
@@ -32350,7 +32350,7 @@
         <v>0</v>
       </c>
       <c r="AU87">
-        <v>321.664</v>
+        <v>348.632</v>
       </c>
       <c r="AV87">
         <v>461.4</v>
@@ -32386,7 +32386,7 @@
         <v>0</v>
       </c>
       <c r="BG87">
-        <v>85.53599999999999</v>
+        <v>86.06799999999998</v>
       </c>
       <c r="BH87">
         <v>124.5</v>
@@ -32691,7 +32691,7 @@
         <v>653.8</v>
       </c>
       <c r="AI88">
-        <v>410.6</v>
+        <v>436.4999999999999</v>
       </c>
       <c r="AJ88">
         <v>590.2</v>
@@ -32727,7 +32727,7 @@
         <v>0</v>
       </c>
       <c r="AU88">
-        <v>325.472</v>
+        <v>350.836</v>
       </c>
       <c r="AV88">
         <v>464.1</v>
@@ -32763,7 +32763,7 @@
         <v>0</v>
       </c>
       <c r="BG88">
-        <v>85.02799999999999</v>
+        <v>85.56399999999999</v>
       </c>
       <c r="BH88">
         <v>126.1</v>
@@ -33068,7 +33068,7 @@
         <v>682.3</v>
       </c>
       <c r="AI89">
-        <v>417.9</v>
+        <v>447.3</v>
       </c>
       <c r="AJ89">
         <v>598.7</v>
@@ -33104,7 +33104,7 @@
         <v>0</v>
       </c>
       <c r="AU89">
-        <v>334.984</v>
+        <v>360.492</v>
       </c>
       <c r="AV89">
         <v>469.2</v>
@@ -33140,7 +33140,7 @@
         <v>0</v>
       </c>
       <c r="BG89">
-        <v>82.91600000000004</v>
+        <v>86.80800000000004</v>
       </c>
       <c r="BH89">
         <v>129.5</v>
@@ -33445,7 +33445,7 @@
         <v>710.5</v>
       </c>
       <c r="AI90">
-        <v>435.3</v>
+        <v>475</v>
       </c>
       <c r="AJ90">
         <v>588.9</v>
@@ -33481,7 +33481,7 @@
         <v>0</v>
       </c>
       <c r="AU90">
-        <v>362.592</v>
+        <v>387.696</v>
       </c>
       <c r="AV90">
         <v>461.3</v>
@@ -33517,7 +33517,7 @@
         <v>0</v>
       </c>
       <c r="BG90">
-        <v>72.708</v>
+        <v>87.304</v>
       </c>
       <c r="BH90">
         <v>127.6</v>
@@ -33822,7 +33822,7 @@
         <v>729.1</v>
       </c>
       <c r="AI91">
-        <v>441.5000000000001</v>
+        <v>482.7</v>
       </c>
       <c r="AJ91">
         <v>607.2</v>
@@ -33858,7 +33858,7 @@
         <v>0</v>
       </c>
       <c r="AU91">
-        <v>368.6679999999999</v>
+        <v>394.0839999999999</v>
       </c>
       <c r="AV91">
         <v>470.2</v>
@@ -33894,7 +33894,7 @@
         <v>0</v>
       </c>
       <c r="BG91">
-        <v>72.83199999999999</v>
+        <v>88.616</v>
       </c>
       <c r="BH91">
         <v>136.9</v>
@@ -34199,7 +34199,7 @@
         <v>741.3</v>
       </c>
       <c r="AI92">
-        <v>446.5999999999999</v>
+        <v>486.1999999999999</v>
       </c>
       <c r="AJ92">
         <v>616.2</v>
@@ -34235,7 +34235,7 @@
         <v>0</v>
       </c>
       <c r="AU92">
-        <v>370.2799999999999</v>
+        <v>395.6399999999999</v>
       </c>
       <c r="AV92">
         <v>479.4</v>
@@ -34271,7 +34271,7 @@
         <v>0</v>
       </c>
       <c r="BG92">
-        <v>76.32000000000002</v>
+        <v>90.56000000000003</v>
       </c>
       <c r="BH92">
         <v>136.8</v>
@@ -34576,7 +34576,7 @@
         <v>746</v>
       </c>
       <c r="AI93">
-        <v>449.5</v>
+        <v>487.5</v>
       </c>
       <c r="AJ93">
         <v>638.9</v>
@@ -34612,7 +34612,7 @@
         <v>0</v>
       </c>
       <c r="AU93">
-        <v>376.5600000000001</v>
+        <v>399.9800000000001</v>
       </c>
       <c r="AV93">
         <v>499</v>
@@ -34648,7 +34648,7 @@
         <v>0</v>
       </c>
       <c r="BG93">
-        <v>73.04000000000002</v>
+        <v>87.62000000000002</v>
       </c>
       <c r="BH93">
         <v>140</v>
@@ -34956,7 +34956,7 @@
         <v>766.5</v>
       </c>
       <c r="AI94">
-        <v>463.6</v>
+        <v>498.7</v>
       </c>
       <c r="AJ94">
         <v>617</v>
@@ -34992,7 +34992,7 @@
         <v>0</v>
       </c>
       <c r="AU94">
-        <v>392.944</v>
+        <v>413.572</v>
       </c>
       <c r="AV94">
         <v>480.3</v>
@@ -35028,7 +35028,7 @@
         <v>0</v>
       </c>
       <c r="BG94">
-        <v>70.65600000000001</v>
+        <v>85.12800000000001</v>
       </c>
       <c r="BH94">
         <v>136.7</v>
@@ -35336,7 +35336,7 @@
         <v>771.7</v>
       </c>
       <c r="AI95">
-        <v>466.7</v>
+        <v>502.2</v>
       </c>
       <c r="AJ95">
         <v>643.5</v>
@@ -35372,7 +35372,7 @@
         <v>0</v>
       </c>
       <c r="AU95">
-        <v>393.6840000000001</v>
+        <v>415.4920000000001</v>
       </c>
       <c r="AV95">
         <v>505.3</v>
@@ -35408,7 +35408,7 @@
         <v>0</v>
       </c>
       <c r="BG95">
-        <v>73.01599999999996</v>
+        <v>86.70799999999997</v>
       </c>
       <c r="BH95">
         <v>138.3</v>
@@ -35716,7 +35716,7 @@
         <v>786.3</v>
       </c>
       <c r="AI96">
-        <v>468.1</v>
+        <v>503.6</v>
       </c>
       <c r="AJ96">
         <v>659.2</v>
@@ -35752,7 +35752,7 @@
         <v>0</v>
       </c>
       <c r="AU96">
-        <v>394.6400000000001</v>
+        <v>416.4200000000001</v>
       </c>
       <c r="AV96">
         <v>515.6</v>
@@ -35788,7 +35788,7 @@
         <v>0</v>
       </c>
       <c r="BG96">
-        <v>73.45999999999999</v>
+        <v>87.17999999999999</v>
       </c>
       <c r="BH96">
         <v>143.6</v>
@@ -36096,7 +36096,7 @@
         <v>791.3</v>
       </c>
       <c r="AI97">
-        <v>470.4999999999999</v>
+        <v>503.6999999999999</v>
       </c>
       <c r="AJ97">
         <v>675.3</v>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="AU97">
-        <v>393.7200000000001</v>
+        <v>415.8600000000001</v>
       </c>
       <c r="AV97">
         <v>529.5</v>
@@ -36168,7 +36168,7 @@
         <v>0</v>
       </c>
       <c r="BG97">
-        <v>76.77999999999997</v>
+        <v>87.83999999999997</v>
       </c>
       <c r="BH97">
         <v>145.8</v>
@@ -36476,7 +36476,7 @@
         <v>805.3</v>
       </c>
       <c r="AI98">
-        <v>483.8</v>
+        <v>511.8</v>
       </c>
       <c r="AJ98">
         <v>673.7</v>
@@ -36512,7 +36512,7 @@
         <v>0</v>
       </c>
       <c r="AU98">
-        <v>401.2839999999999</v>
+        <v>423.0919999999999</v>
       </c>
       <c r="AV98">
         <v>526.7</v>
@@ -36548,7 +36548,7 @@
         <v>0</v>
       </c>
       <c r="BG98">
-        <v>82.61599999999999</v>
+        <v>88.80799999999999</v>
       </c>
       <c r="BH98">
         <v>146.9</v>
@@ -36856,7 +36856,7 @@
         <v>810.1</v>
       </c>
       <c r="AI99">
-        <v>486.4000000000001</v>
+        <v>510.8000000000001</v>
       </c>
       <c r="AJ99">
         <v>697.8</v>
@@ -36892,7 +36892,7 @@
         <v>0</v>
       </c>
       <c r="AU99">
-        <v>399.8080000000001</v>
+        <v>421.9040000000001</v>
       </c>
       <c r="AV99">
         <v>555.9</v>
@@ -36928,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="BG99">
-        <v>86.592</v>
+        <v>88.896</v>
       </c>
       <c r="BH99">
         <v>141.9</v>
@@ -37236,7 +37236,7 @@
         <v>813.6</v>
       </c>
       <c r="AI100">
-        <v>488.2</v>
+        <v>510.3000000000001</v>
       </c>
       <c r="AJ100">
         <v>695.4</v>
@@ -37272,7 +37272,7 @@
         <v>0</v>
       </c>
       <c r="AU100">
-        <v>400.372</v>
+        <v>421.636</v>
       </c>
       <c r="AV100">
         <v>544.2</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="BG100">
-        <v>87.92800000000001</v>
+        <v>88.76400000000001</v>
       </c>
       <c r="BH100">
         <v>151.2</v>
@@ -37616,7 +37616,7 @@
         <v>833.8</v>
       </c>
       <c r="AI101">
-        <v>493.1</v>
+        <v>514.4</v>
       </c>
       <c r="AJ101">
         <v>705.4</v>
@@ -37652,7 +37652,7 @@
         <v>0</v>
       </c>
       <c r="AU101">
-        <v>405.3800000000001</v>
+        <v>425.9400000000001</v>
       </c>
       <c r="AV101">
         <v>553.4</v>
@@ -37688,7 +37688,7 @@
         <v>0</v>
       </c>
       <c r="BG101">
-        <v>87.72</v>
+        <v>88.46000000000001</v>
       </c>
       <c r="BH101">
         <v>152</v>
@@ -37996,7 +37996,7 @@
         <v>857.9</v>
       </c>
       <c r="AI102">
-        <v>508.8000000000001</v>
+        <v>529.7</v>
       </c>
       <c r="AJ102">
         <v>724.6</v>
@@ -38032,7 +38032,7 @@
         <v>0</v>
       </c>
       <c r="AU102">
-        <v>421.612</v>
+        <v>441.756</v>
       </c>
       <c r="AV102">
         <v>567.7</v>
@@ -38068,7 +38068,7 @@
         <v>0</v>
       </c>
       <c r="BG102">
-        <v>87.28800000000001</v>
+        <v>88.04400000000001</v>
       </c>
       <c r="BH102">
         <v>156.9</v>
@@ -38376,7 +38376,7 @@
         <v>865.6</v>
       </c>
       <c r="AI103">
-        <v>511.9</v>
+        <v>533.5</v>
       </c>
       <c r="AJ103">
         <v>746.8</v>
@@ -38412,7 +38412,7 @@
         <v>0</v>
       </c>
       <c r="AU103">
-        <v>423.588</v>
+        <v>444.444</v>
       </c>
       <c r="AV103">
         <v>594.4</v>
@@ -38448,7 +38448,7 @@
         <v>0</v>
       </c>
       <c r="BG103">
-        <v>88.312</v>
+        <v>89.056</v>
       </c>
       <c r="BH103">
         <v>152.4</v>
@@ -38756,7 +38756,7 @@
         <v>870.7</v>
       </c>
       <c r="AI104">
-        <v>512.8000000000001</v>
+        <v>534.8000000000001</v>
       </c>
       <c r="AJ104">
         <v>752.2</v>
@@ -38792,7 +38792,7 @@
         <v>0</v>
       </c>
       <c r="AU104">
-        <v>424.232</v>
+        <v>445.516</v>
       </c>
       <c r="AV104">
         <v>591.5</v>
@@ -38828,7 +38828,7 @@
         <v>0</v>
       </c>
       <c r="BG104">
-        <v>88.56799999999998</v>
+        <v>89.28399999999999</v>
       </c>
       <c r="BH104">
         <v>160.7</v>
@@ -39136,7 +39136,7 @@
         <v>864.6</v>
       </c>
       <c r="AI105">
-        <v>514.9000000000001</v>
+        <v>537.4000000000001</v>
       </c>
       <c r="AJ105">
         <v>770</v>
@@ -39172,7 +39172,7 @@
         <v>0</v>
       </c>
       <c r="AU105">
-        <v>425.7639999999999</v>
+        <v>447.5319999999999</v>
       </c>
       <c r="AV105">
         <v>607.6</v>
@@ -39208,7 +39208,7 @@
         <v>0</v>
       </c>
       <c r="BG105">
-        <v>89.13600000000004</v>
+        <v>89.86800000000004</v>
       </c>
       <c r="BH105">
         <v>162.4</v>
@@ -39516,7 +39516,7 @@
         <v>893.2</v>
       </c>
       <c r="AI106">
-        <v>529.3000000000001</v>
+        <v>552.3000000000001</v>
       </c>
       <c r="AJ106">
         <v>801.7</v>
@@ -39552,7 +39552,7 @@
         <v>0</v>
       </c>
       <c r="AU106">
-        <v>440.8480000000001</v>
+        <v>463.1240000000001</v>
       </c>
       <c r="AV106">
         <v>636.4</v>
@@ -39588,7 +39588,7 @@
         <v>0</v>
       </c>
       <c r="BG106">
-        <v>88.45199999999997</v>
+        <v>89.17599999999997</v>
       </c>
       <c r="BH106">
         <v>165.3</v>
@@ -39896,7 +39896,7 @@
         <v>912.9</v>
       </c>
       <c r="AI107">
-        <v>531.4999999999999</v>
+        <v>554.1999999999999</v>
       </c>
       <c r="AJ107">
         <v>839.6</v>
@@ -39932,7 +39932,7 @@
         <v>0</v>
       </c>
       <c r="AU107">
-        <v>443.704</v>
+        <v>465.752</v>
       </c>
       <c r="AV107">
         <v>673.6</v>
@@ -39968,7 +39968,7 @@
         <v>0</v>
       </c>
       <c r="BG107">
-        <v>87.79599999999998</v>
+        <v>88.44799999999998</v>
       </c>
       <c r="BH107">
         <v>165.9</v>
@@ -40276,7 +40276,7 @@
         <v>908.5</v>
       </c>
       <c r="AI108">
-        <v>531.6</v>
+        <v>553.2</v>
       </c>
       <c r="AJ108">
         <v>843.5</v>
@@ -40312,7 +40312,7 @@
         <v>0</v>
       </c>
       <c r="AU108">
-        <v>445.192</v>
+        <v>466.196</v>
       </c>
       <c r="AV108">
         <v>674.2</v>
@@ -40348,7 +40348,7 @@
         <v>0</v>
       </c>
       <c r="BG108">
-        <v>86.40799999999997</v>
+        <v>87.00399999999998</v>
       </c>
       <c r="BH108">
         <v>169.3</v>
@@ -40656,7 +40656,7 @@
         <v>910.7</v>
       </c>
       <c r="AI109">
-        <v>531.7</v>
+        <v>553.4000000000001</v>
       </c>
       <c r="AJ109">
         <v>863.5</v>
@@ -40692,7 +40692,7 @@
         <v>0</v>
       </c>
       <c r="AU109">
-        <v>446.3239999999999</v>
+        <v>467.4119999999999</v>
       </c>
       <c r="AV109">
         <v>689.4</v>
@@ -40728,7 +40728,7 @@
         <v>0</v>
       </c>
       <c r="BG109">
-        <v>85.27599999999998</v>
+        <v>85.88799999999998</v>
       </c>
       <c r="BH109">
         <v>174.1</v>
@@ -41036,7 +41036,7 @@
         <v>930.5</v>
       </c>
       <c r="AI110">
-        <v>543.7</v>
+        <v>564.7</v>
       </c>
       <c r="AJ110">
         <v>902.1</v>
@@ -41072,7 +41072,7 @@
         <v>0</v>
       </c>
       <c r="AU110">
-        <v>459.484</v>
+        <v>479.792</v>
       </c>
       <c r="AV110">
         <v>724.3</v>
@@ -41108,7 +41108,7 @@
         <v>0</v>
       </c>
       <c r="BG110">
-        <v>84.21599999999998</v>
+        <v>84.90799999999999</v>
       </c>
       <c r="BH110">
         <v>177.8</v>
@@ -41416,7 +41416,7 @@
         <v>931.3</v>
       </c>
       <c r="AI111">
-        <v>544.4</v>
+        <v>564.8</v>
       </c>
       <c r="AJ111">
         <v>916.2</v>
@@ -41452,7 +41452,7 @@
         <v>0</v>
       </c>
       <c r="AU111">
-        <v>460.8159999999999</v>
+        <v>480.6079999999999</v>
       </c>
       <c r="AV111">
         <v>739.3</v>
@@ -41488,7 +41488,7 @@
         <v>0</v>
       </c>
       <c r="BG111">
-        <v>83.48399999999998</v>
+        <v>84.09199999999998</v>
       </c>
       <c r="BH111">
         <v>176.9</v>
@@ -41796,7 +41796,7 @@
         <v>937.2</v>
       </c>
       <c r="AI112">
-        <v>545.6</v>
+        <v>565.2</v>
       </c>
       <c r="AJ112">
         <v>941.1</v>
@@ -41832,7 +41832,7 @@
         <v>0</v>
       </c>
       <c r="AU112">
-        <v>462.7720000000001</v>
+        <v>481.8360000000001</v>
       </c>
       <c r="AV112">
         <v>757</v>
@@ -41868,7 +41868,7 @@
         <v>0</v>
       </c>
       <c r="BG112">
-        <v>82.828</v>
+        <v>83.364</v>
       </c>
       <c r="BH112">
         <v>184.1</v>
@@ -42176,7 +42176,7 @@
         <v>942.7</v>
       </c>
       <c r="AI113">
-        <v>547.4000000000001</v>
+        <v>566.8000000000001</v>
       </c>
       <c r="AJ113">
         <v>967.8</v>
@@ -42212,7 +42212,7 @@
         <v>0</v>
       </c>
       <c r="AU113">
-        <v>464.5960000000001</v>
+        <v>483.4480000000001</v>
       </c>
       <c r="AV113">
         <v>778.6</v>
@@ -42248,7 +42248,7 @@
         <v>0</v>
       </c>
       <c r="BG113">
-        <v>82.70400000000002</v>
+        <v>83.25200000000002</v>
       </c>
       <c r="BH113">
         <v>189.2</v>
@@ -42556,7 +42556,7 @@
         <v>951.8</v>
       </c>
       <c r="AI114">
-        <v>558.8</v>
+        <v>578.1999999999999</v>
       </c>
       <c r="AJ114">
         <v>996.1</v>
@@ -42592,7 +42592,7 @@
         <v>0</v>
       </c>
       <c r="AU114">
-        <v>475.5960000000001</v>
+        <v>494.448</v>
       </c>
       <c r="AV114">
         <v>800.6</v>
@@ -42628,7 +42628,7 @@
         <v>0</v>
       </c>
       <c r="BG114">
-        <v>83.20400000000002</v>
+        <v>83.75200000000002</v>
       </c>
       <c r="BH114">
         <v>195.6</v>
@@ -42936,7 +42936,7 @@
         <v>956</v>
       </c>
       <c r="AI115">
-        <v>561.4000000000001</v>
+        <v>580.7</v>
       </c>
       <c r="AJ115">
         <v>1022.4</v>
@@ -42972,7 +42972,7 @@
         <v>0</v>
       </c>
       <c r="AU115">
-        <v>477.8</v>
+        <v>496.6</v>
       </c>
       <c r="AV115">
         <v>820.9</v>
@@ -43008,7 +43008,7 @@
         <v>0</v>
       </c>
       <c r="BG115">
-        <v>83.60000000000002</v>
+        <v>84.10000000000002</v>
       </c>
       <c r="BH115">
         <v>201.4</v>
@@ -43316,7 +43316,7 @@
         <v>957.4</v>
       </c>
       <c r="AI116">
-        <v>564</v>
+        <v>584.3</v>
       </c>
       <c r="AJ116">
         <v>1043.2</v>
@@ -43352,7 +43352,7 @@
         <v>0</v>
       </c>
       <c r="AU116">
-        <v>478.9400000000001</v>
+        <v>498.72</v>
       </c>
       <c r="AV116">
         <v>841.6</v>
@@ -43388,7 +43388,7 @@
         <v>0</v>
       </c>
       <c r="BG116">
-        <v>85.06000000000003</v>
+        <v>85.58000000000003</v>
       </c>
       <c r="BH116">
         <v>201.6</v>
@@ -43696,7 +43696,7 @@
         <v>966.4</v>
       </c>
       <c r="AI117">
-        <v>565.7</v>
+        <v>585.5</v>
       </c>
       <c r="AJ117">
         <v>1068</v>
@@ -43732,7 +43732,7 @@
         <v>0</v>
       </c>
       <c r="AU117">
-        <v>480.576</v>
+        <v>499.888</v>
       </c>
       <c r="AV117">
         <v>861.7</v>
@@ -43768,7 +43768,7 @@
         <v>0</v>
       </c>
       <c r="BG117">
-        <v>85.124</v>
+        <v>85.61199999999999</v>
       </c>
       <c r="BH117">
         <v>206.3</v>
@@ -44076,7 +44076,7 @@
         <v>983.4</v>
       </c>
       <c r="AI118">
-        <v>574.9000000000001</v>
+        <v>595.7</v>
       </c>
       <c r="AJ118">
         <v>1077.9</v>
@@ -44112,7 +44112,7 @@
         <v>0</v>
       </c>
       <c r="AU118">
-        <v>488.2920000000001</v>
+        <v>508.5960000000001</v>
       </c>
       <c r="AV118">
         <v>869.8</v>
@@ -44148,7 +44148,7 @@
         <v>0</v>
       </c>
       <c r="BG118">
-        <v>86.50799999999998</v>
+        <v>87.00399999999999</v>
       </c>
       <c r="BH118">
         <v>208.2</v>
@@ -44456,7 +44456,7 @@
         <v>985</v>
       </c>
       <c r="AI119">
-        <v>577.1</v>
+        <v>598</v>
       </c>
       <c r="AJ119">
         <v>1095.2</v>
@@ -44492,7 +44492,7 @@
         <v>0</v>
       </c>
       <c r="AU119">
-        <v>489.892</v>
+        <v>510.296</v>
       </c>
       <c r="AV119">
         <v>885.8</v>
@@ -44528,7 +44528,7 @@
         <v>0</v>
       </c>
       <c r="BG119">
-        <v>87.20800000000004</v>
+        <v>87.70400000000004</v>
       </c>
       <c r="BH119">
         <v>209.4</v>
@@ -44836,7 +44836,7 @@
         <v>996.1</v>
       </c>
       <c r="AI120">
-        <v>579.7</v>
+        <v>600</v>
       </c>
       <c r="AJ120">
         <v>1120.6</v>
@@ -44872,7 +44872,7 @@
         <v>0</v>
       </c>
       <c r="AU120">
-        <v>491.9960000000001</v>
+        <v>511.8480000000001</v>
       </c>
       <c r="AV120">
         <v>904.2</v>
@@ -44908,7 +44908,7 @@
         <v>0</v>
       </c>
       <c r="BG120">
-        <v>87.70399999999998</v>
+        <v>88.15199999999999</v>
       </c>
       <c r="BH120">
         <v>216.4</v>
@@ -45216,7 +45216,7 @@
         <v>1004.3</v>
       </c>
       <c r="AI121">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="AJ121">
         <v>1154</v>
@@ -45252,7 +45252,7 @@
         <v>0</v>
       </c>
       <c r="AU121">
-        <v>494.0320000000001</v>
+        <v>513.6160000000001</v>
       </c>
       <c r="AV121">
         <v>930</v>
@@ -45288,7 +45288,7 @@
         <v>0</v>
       </c>
       <c r="BG121">
-        <v>88.06799999999998</v>
+        <v>88.48399999999998</v>
       </c>
       <c r="BH121">
         <v>224</v>
@@ -45596,7 +45596,7 @@
         <v>1016.9</v>
       </c>
       <c r="AI122">
-        <v>593.2</v>
+        <v>613.7</v>
       </c>
       <c r="AJ122">
         <v>1208.8</v>
@@ -45632,7 +45632,7 @@
         <v>0</v>
       </c>
       <c r="AU122">
-        <v>503.6559999999999</v>
+        <v>523.728</v>
       </c>
       <c r="AV122">
         <v>976.6</v>
@@ -45668,7 +45668,7 @@
         <v>0</v>
       </c>
       <c r="BG122">
-        <v>89.54400000000004</v>
+        <v>89.97200000000004</v>
       </c>
       <c r="BH122">
         <v>232.2</v>
@@ -45976,7 +45976,7 @@
         <v>1042.3</v>
       </c>
       <c r="AI123">
-        <v>607.9</v>
+        <v>627.9</v>
       </c>
       <c r="AJ123">
         <v>1230.2</v>
@@ -46012,7 +46012,7 @@
         <v>0</v>
       </c>
       <c r="AU123">
-        <v>517.7439999999999</v>
+        <v>537.2719999999999</v>
       </c>
       <c r="AV123">
         <v>986.9</v>
@@ -46048,7 +46048,7 @@
         <v>0</v>
       </c>
       <c r="BG123">
-        <v>90.15599999999998</v>
+        <v>90.62799999999999</v>
       </c>
       <c r="BH123">
         <v>243.3</v>
@@ -46356,7 +46356,7 @@
         <v>1054.7</v>
       </c>
       <c r="AI124">
-        <v>608.6</v>
+        <v>629.2</v>
       </c>
       <c r="AJ124">
         <v>1247.7</v>
@@ -46392,7 +46392,7 @@
         <v>0</v>
       </c>
       <c r="AU124">
-        <v>516.616</v>
+        <v>536.708</v>
       </c>
       <c r="AV124">
         <v>1011.1</v>
@@ -46428,7 +46428,7 @@
         <v>0</v>
       </c>
       <c r="BG124">
-        <v>91.98399999999995</v>
+        <v>92.49199999999996</v>
       </c>
       <c r="BH124">
         <v>236.6</v>
@@ -46736,7 +46736,7 @@
         <v>1065.6</v>
       </c>
       <c r="AI125">
-        <v>612.1999999999999</v>
+        <v>634.0999999999999</v>
       </c>
       <c r="AJ125">
         <v>1258.7</v>
@@ -46772,7 +46772,7 @@
         <v>0</v>
       </c>
       <c r="AU125">
-        <v>517.16</v>
+        <v>538.48</v>
       </c>
       <c r="AV125">
         <v>1023.9</v>
@@ -46808,7 +46808,7 @@
         <v>0</v>
       </c>
       <c r="BG125">
-        <v>95.03999999999999</v>
+        <v>95.61999999999999</v>
       </c>
       <c r="BH125">
         <v>234.8</v>
@@ -47116,7 +47116,7 @@
         <v>1107.8</v>
       </c>
       <c r="AI126">
-        <v>633.5</v>
+        <v>659</v>
       </c>
       <c r="AJ126">
         <v>1301.9</v>
@@ -47152,7 +47152,7 @@
         <v>0</v>
       </c>
       <c r="AU126">
-        <v>533.748</v>
+        <v>558.624</v>
       </c>
       <c r="AV126">
         <v>1051</v>
@@ -47188,7 +47188,7 @@
         <v>0</v>
       </c>
       <c r="BG126">
-        <v>99.65199999999996</v>
+        <v>100.276</v>
       </c>
       <c r="BH126">
         <v>250.9</v>
@@ -47496,7 +47496,7 @@
         <v>1139.1</v>
       </c>
       <c r="AI127">
-        <v>640.1999999999999</v>
+        <v>668.5999999999999</v>
       </c>
       <c r="AJ127">
         <v>1308.9</v>
@@ -47532,7 +47532,7 @@
         <v>0</v>
       </c>
       <c r="AU127">
-        <v>534.8639999999999</v>
+        <v>562.732</v>
       </c>
       <c r="AV127">
         <v>1049</v>
@@ -47568,7 +47568,7 @@
         <v>0</v>
       </c>
       <c r="BG127">
-        <v>105.236</v>
+        <v>105.768</v>
       </c>
       <c r="BH127">
         <v>259.9</v>
@@ -47876,7 +47876,7 @@
         <v>1145.2</v>
       </c>
       <c r="AI128">
-        <v>648.9</v>
+        <v>682</v>
       </c>
       <c r="AJ128">
         <v>1113.6</v>
@@ -47912,7 +47912,7 @@
         <v>0</v>
       </c>
       <c r="AU128">
-        <v>538.352</v>
+        <v>570.976</v>
       </c>
       <c r="AV128">
         <v>881.7</v>
@@ -47948,7 +47948,7 @@
         <v>0</v>
       </c>
       <c r="BG128">
-        <v>110.548</v>
+        <v>111.024</v>
       </c>
       <c r="BH128">
         <v>231.9</v>
@@ -48256,7 +48256,7 @@
         <v>1191.2</v>
       </c>
       <c r="AI129">
-        <v>653.8000000000001</v>
+        <v>694.4000000000001</v>
       </c>
       <c r="AJ129">
         <v>1231.8</v>
@@ -48292,7 +48292,7 @@
         <v>0</v>
       </c>
       <c r="AU129">
-        <v>534.6840000000002</v>
+        <v>574.7920000000001</v>
       </c>
       <c r="AV129">
         <v>1002.4</v>
@@ -48328,7 +48328,7 @@
         <v>0</v>
       </c>
       <c r="BG129">
-        <v>119.116</v>
+        <v>119.608</v>
       </c>
       <c r="BH129">
         <v>229.3</v>
@@ -48636,7 +48636,7 @@
         <v>1221</v>
       </c>
       <c r="AI130">
-        <v>679.2</v>
+        <v>722</v>
       </c>
       <c r="AJ130">
         <v>1075.2</v>
@@ -48672,7 +48672,7 @@
         <v>0</v>
       </c>
       <c r="AU130">
-        <v>558.526</v>
+        <v>599.713</v>
       </c>
       <c r="AV130">
         <v>847.8</v>
@@ -48708,7 +48708,7 @@
         <v>0</v>
       </c>
       <c r="BG130">
-        <v>120.674</v>
+        <v>122.287</v>
       </c>
       <c r="BH130">
         <v>227.4</v>
@@ -49016,7 +49016,7 @@
         <v>1247.1</v>
       </c>
       <c r="AI131">
-        <v>684.8999999999999</v>
+        <v>745.3999999999999</v>
       </c>
       <c r="AJ131">
         <v>1051</v>
@@ -49052,7 +49052,7 @@
         <v>0</v>
       </c>
       <c r="AU131">
-        <v>576.816</v>
+        <v>619.9580000000001</v>
       </c>
       <c r="AV131">
         <v>836.7</v>
@@ -49088,7 +49088,7 @@
         <v>0</v>
       </c>
       <c r="BG131">
-        <v>107.984</v>
+        <v>125.342</v>
       </c>
       <c r="BH131">
         <v>214.3</v>
@@ -49396,7 +49396,7 @@
         <v>1259.9</v>
       </c>
       <c r="AI132">
-        <v>690.3000000000001</v>
+        <v>747.2</v>
       </c>
       <c r="AJ132">
         <v>1044.1</v>
@@ -49432,7 +49432,7 @@
         <v>0</v>
       </c>
       <c r="AU132">
-        <v>579.4140000000002</v>
+        <v>621.5070000000002</v>
       </c>
       <c r="AV132">
         <v>825.3</v>
@@ -49468,7 +49468,7 @@
         <v>0</v>
       </c>
       <c r="BG132">
-        <v>110.886</v>
+        <v>125.693</v>
       </c>
       <c r="BH132">
         <v>218.8</v>
@@ -49776,7 +49776,7 @@
         <v>1276.2</v>
       </c>
       <c r="AI133">
-        <v>697</v>
+        <v>750.7</v>
       </c>
       <c r="AJ133">
         <v>1038.4</v>
@@ -49812,7 +49812,7 @@
         <v>0</v>
       </c>
       <c r="AU133">
-        <v>581.716</v>
+        <v>623.658</v>
       </c>
       <c r="AV133">
         <v>819.6</v>
@@ -49848,7 +49848,7 @@
         <v>0</v>
       </c>
       <c r="BG133">
-        <v>115.2839999999999</v>
+        <v>127.0419999999999</v>
       </c>
       <c r="BH133">
         <v>218.9</v>
@@ -50156,7 +50156,7 @@
         <v>1294.6</v>
       </c>
       <c r="AI134">
-        <v>713.2</v>
+        <v>765</v>
       </c>
       <c r="AJ134">
         <v>1021.3</v>
@@ -50192,7 +50192,7 @@
         <v>0</v>
       </c>
       <c r="AU134">
-        <v>596.0899999999999</v>
+        <v>637.4449999999999</v>
       </c>
       <c r="AV134">
         <v>803.5</v>
@@ -50228,7 +50228,7 @@
         <v>0</v>
       </c>
       <c r="BG134">
-        <v>117.21</v>
+        <v>127.655</v>
       </c>
       <c r="BH134">
         <v>217.9</v>
@@ -50536,7 +50536,7 @@
         <v>1312.6</v>
       </c>
       <c r="AI135">
-        <v>723.8999999999999</v>
+        <v>779.0999999999999</v>
       </c>
       <c r="AJ135">
         <v>1020.8</v>
@@ -50572,7 +50572,7 @@
         <v>0</v>
       </c>
       <c r="AU135">
-        <v>604.4540000000001</v>
+        <v>647.677</v>
       </c>
       <c r="AV135">
         <v>812.9</v>
@@ -50608,7 +50608,7 @@
         <v>0</v>
       </c>
       <c r="BG135">
-        <v>119.446</v>
+        <v>131.423</v>
       </c>
       <c r="BH135">
         <v>207.9</v>
@@ -50916,7 +50916,7 @@
         <v>1335.5</v>
       </c>
       <c r="AI136">
-        <v>730.5999999999999</v>
+        <v>784.8</v>
       </c>
       <c r="AJ136">
         <v>950.7</v>
@@ -50952,7 +50952,7 @@
         <v>0</v>
       </c>
       <c r="AU136">
-        <v>610.7519999999998</v>
+        <v>652.7259999999999</v>
       </c>
       <c r="AV136">
         <v>716.5</v>
@@ -50988,7 +50988,7 @@
         <v>0</v>
       </c>
       <c r="BG136">
-        <v>119.848</v>
+        <v>132.074</v>
       </c>
       <c r="BH136">
         <v>234.2</v>
@@ -51296,7 +51296,7 @@
         <v>1341.2</v>
       </c>
       <c r="AI137">
-        <v>738.5</v>
+        <v>790</v>
       </c>
       <c r="AJ137">
         <v>1021.3</v>
@@ -51332,7 +51332,7 @@
         <v>0</v>
       </c>
       <c r="AU137">
-        <v>620.0300000000001</v>
+        <v>659.4150000000001</v>
       </c>
       <c r="AV137">
         <v>781.6</v>
@@ -51368,7 +51368,7 @@
         <v>0</v>
       </c>
       <c r="BG137">
-        <v>118.57</v>
+        <v>130.685</v>
       </c>
       <c r="BH137">
         <v>239.7</v>
@@ -51676,7 +51676,7 @@
         <v>1379.6</v>
       </c>
       <c r="AI138">
-        <v>760.9</v>
+        <v>803.1999999999999</v>
       </c>
       <c r="AJ138">
         <v>1012.3</v>
@@ -51712,7 +51712,7 @@
         <v>0</v>
       </c>
       <c r="AU138">
-        <v>638.0240000000001</v>
+        <v>674.3120000000001</v>
       </c>
       <c r="AV138">
         <v>773.2</v>
@@ -51748,7 +51748,7 @@
         <v>0</v>
       </c>
       <c r="BG138">
-        <v>122.876</v>
+        <v>128.888</v>
       </c>
       <c r="BH138">
         <v>239</v>
@@ -52056,7 +52056,7 @@
         <v>1400.6</v>
       </c>
       <c r="AI139">
-        <v>771.3</v>
+        <v>807.1999999999999</v>
       </c>
       <c r="AJ139">
         <v>1026.8</v>
@@ -52092,7 +52092,7 @@
         <v>0</v>
       </c>
       <c r="AU139">
-        <v>643.3820000000001</v>
+        <v>678.2410000000001</v>
       </c>
       <c r="AV139">
         <v>792.4</v>
@@ -52128,7 +52128,7 @@
         <v>0</v>
       </c>
       <c r="BG139">
-        <v>127.918</v>
+        <v>128.959</v>
       </c>
       <c r="BH139">
         <v>234.3</v>
@@ -52436,7 +52436,7 @@
         <v>1409.8</v>
       </c>
       <c r="AI140">
-        <v>778.1999999999998</v>
+        <v>812.8999999999999</v>
       </c>
       <c r="AJ140">
         <v>1064.4</v>
@@ -52472,7 +52472,7 @@
         <v>0</v>
       </c>
       <c r="AU140">
-        <v>647.8399999999998</v>
+        <v>681.6699999999998</v>
       </c>
       <c r="AV140">
         <v>816.7</v>
@@ -52508,7 +52508,7 @@
         <v>0</v>
       </c>
       <c r="BG140">
-        <v>130.3599999999999</v>
+        <v>131.2299999999999</v>
       </c>
       <c r="BH140">
         <v>247.7</v>
@@ -52816,7 +52816,7 @@
         <v>1427.9</v>
       </c>
       <c r="AI141">
-        <v>785.1000000000001</v>
+        <v>818.0000000000001</v>
       </c>
       <c r="AJ141">
         <v>1091.6</v>
@@ -52852,7 +52852,7 @@
         <v>0</v>
       </c>
       <c r="AU141">
-        <v>657.248</v>
+        <v>689.374</v>
       </c>
       <c r="AV141">
         <v>829.8</v>
@@ -52888,7 +52888,7 @@
         <v>0</v>
       </c>
       <c r="BG141">
-        <v>127.852</v>
+        <v>128.626</v>
       </c>
       <c r="BH141">
         <v>261.8</v>
@@ -53196,7 +53196,7 @@
         <v>1464.4</v>
       </c>
       <c r="AI142">
-        <v>807.8000000000001</v>
+        <v>839.9000000000001</v>
       </c>
       <c r="AJ142">
         <v>1172.3</v>
@@ -53232,7 +53232,7 @@
         <v>0</v>
       </c>
       <c r="AU142">
-        <v>679.3739999999998</v>
+        <v>710.7369999999999</v>
       </c>
       <c r="AV142">
         <v>902.9</v>
@@ -53268,7 +53268,7 @@
         <v>0</v>
       </c>
       <c r="BG142">
-        <v>128.426</v>
+        <v>129.163</v>
       </c>
       <c r="BH142">
         <v>269.4</v>
@@ -53576,7 +53576,7 @@
         <v>1486</v>
       </c>
       <c r="AI143">
-        <v>815.1</v>
+        <v>846</v>
       </c>
       <c r="AJ143">
         <v>1196.3</v>
@@ -53612,7 +53612,7 @@
         <v>0</v>
       </c>
       <c r="AU143">
-        <v>686.4239999999999</v>
+        <v>716.6119999999999</v>
       </c>
       <c r="AV143">
         <v>925.8</v>
@@ -53648,7 +53648,7 @@
         <v>0</v>
       </c>
       <c r="BG143">
-        <v>128.676</v>
+        <v>129.388</v>
       </c>
       <c r="BH143">
         <v>270.4</v>
@@ -53956,7 +53956,7 @@
         <v>1501</v>
       </c>
       <c r="AI144">
-        <v>834.1999999999999</v>
+        <v>865.8</v>
       </c>
       <c r="AJ144">
         <v>1225.5</v>
@@ -53992,7 +53992,7 @@
         <v>0</v>
       </c>
       <c r="AU144">
-        <v>695.1519999999998</v>
+        <v>725.9259999999998</v>
       </c>
       <c r="AV144">
         <v>949.5</v>
@@ -54028,7 +54028,7 @@
         <v>0</v>
       </c>
       <c r="BG144">
-        <v>138.948</v>
+        <v>139.774</v>
       </c>
       <c r="BH144">
         <v>276</v>
@@ -54336,7 +54336,7 @@
         <v>1512.3</v>
       </c>
       <c r="AI145">
-        <v>833.4</v>
+        <v>865.9</v>
       </c>
       <c r="AJ145">
         <v>1255.8</v>
@@ -54372,7 +54372,7 @@
         <v>0</v>
       </c>
       <c r="AU145">
-        <v>699.8040000000001</v>
+        <v>731.6020000000001</v>
       </c>
       <c r="AV145">
         <v>970.6</v>
@@ -54408,7 +54408,7 @@
         <v>0</v>
       </c>
       <c r="BG145">
-        <v>133.596</v>
+        <v>134.298</v>
       </c>
       <c r="BH145">
         <v>285.2</v>
@@ -54716,7 +54716,7 @@
         <v>1566.7</v>
       </c>
       <c r="AI146">
-        <v>855.5</v>
+        <v>885.8</v>
       </c>
       <c r="AJ146">
         <v>1320.5</v>
@@ -54752,7 +54752,7 @@
         <v>0</v>
       </c>
       <c r="AU146">
-        <v>723.9639999999999</v>
+        <v>753.5319999999999</v>
       </c>
       <c r="AV146">
         <v>1025.5</v>
@@ -54788,7 +54788,7 @@
         <v>0</v>
       </c>
       <c r="BG146">
-        <v>131.5359999999999</v>
+        <v>132.2679999999999</v>
       </c>
       <c r="BH146">
         <v>294.9</v>
@@ -55096,7 +55096,7 @@
         <v>1583.2</v>
       </c>
       <c r="AI147">
-        <v>863.2</v>
+        <v>892.7</v>
       </c>
       <c r="AJ147">
         <v>1351.3</v>
@@ -55132,7 +55132,7 @@
         <v>0</v>
       </c>
       <c r="AU147">
-        <v>730.9540000000001</v>
+        <v>759.677</v>
       </c>
       <c r="AV147">
         <v>1041.2</v>
@@ -55168,7 +55168,7 @@
         <v>0</v>
       </c>
       <c r="BG147">
-        <v>132.246</v>
+        <v>133.023</v>
       </c>
       <c r="BH147">
         <v>310.1</v>
@@ -55476,7 +55476,7 @@
         <v>1608.5</v>
       </c>
       <c r="AI148">
-        <v>867.1</v>
+        <v>897.7</v>
       </c>
       <c r="AJ148">
         <v>1358.6</v>
@@ -55512,7 +55512,7 @@
         <v>0</v>
       </c>
       <c r="AU148">
-        <v>732.3699999999997</v>
+        <v>762.1849999999997</v>
       </c>
       <c r="AV148">
         <v>1060.9</v>
@@ -55548,7 +55548,7 @@
         <v>0</v>
       </c>
       <c r="BG148">
-        <v>134.73</v>
+        <v>135.515</v>
       </c>
       <c r="BH148">
         <v>297.7</v>
@@ -55856,7 +55856,7 @@
         <v>1613.8</v>
       </c>
       <c r="AI149">
-        <v>872.1999999999999</v>
+        <v>903.3</v>
       </c>
       <c r="AJ149">
         <v>1397.5</v>
@@ -55892,7 +55892,7 @@
         <v>0</v>
       </c>
       <c r="AU149">
-        <v>735.7379999999997</v>
+        <v>766.1189999999997</v>
       </c>
       <c r="AV149">
         <v>1095.8</v>
@@ -55928,7 +55928,7 @@
         <v>0</v>
       </c>
       <c r="BG149">
-        <v>136.362</v>
+        <v>137.081</v>
       </c>
       <c r="BH149">
         <v>301.7</v>
@@ -56236,7 +56236,7 @@
         <v>1680.2</v>
       </c>
       <c r="AI150">
-        <v>899.0000000000001</v>
+        <v>931.3000000000001</v>
       </c>
       <c r="AJ150">
         <v>1466.5</v>
@@ -56272,7 +56272,7 @@
         <v>0</v>
       </c>
       <c r="AU150">
-        <v>760.5760000000001</v>
+        <v>792.1380000000001</v>
       </c>
       <c r="AV150">
         <v>1146</v>
@@ -56308,7 +56308,7 @@
         <v>0</v>
       </c>
       <c r="BG150">
-        <v>138.424</v>
+        <v>139.162</v>
       </c>
       <c r="BH150">
         <v>320.5</v>
@@ -56616,7 +56616,7 @@
         <v>1680.4</v>
       </c>
       <c r="AI151">
-        <v>909.8000000000002</v>
+        <v>941.6000000000001</v>
       </c>
       <c r="AJ151">
         <v>1495.9</v>
@@ -56652,7 +56652,7 @@
         <v>0</v>
       </c>
       <c r="AU151">
-        <v>770.3440000000002</v>
+        <v>801.4720000000002</v>
       </c>
       <c r="AV151">
         <v>1163.9</v>
@@ -56688,7 +56688,7 @@
         <v>0</v>
       </c>
       <c r="BG151">
-        <v>139.456</v>
+        <v>140.128</v>
       </c>
       <c r="BH151">
         <v>332</v>
@@ -56996,7 +56996,7 @@
         <v>1700.2</v>
       </c>
       <c r="AI152">
-        <v>915.8000000000001</v>
+        <v>948.6</v>
       </c>
       <c r="AJ152">
         <v>1498.9</v>
@@ -57032,7 +57032,7 @@
         <v>0</v>
       </c>
       <c r="AU152">
-        <v>773.9119999999999</v>
+        <v>806.0559999999999</v>
       </c>
       <c r="AV152">
         <v>1179.3</v>
@@ -57068,7 +57068,7 @@
         <v>0</v>
       </c>
       <c r="BG152">
-        <v>141.788</v>
+        <v>142.444</v>
       </c>
       <c r="BH152">
         <v>319.6</v>
@@ -57376,7 +57376,7 @@
         <v>1728.6</v>
       </c>
       <c r="AI153">
-        <v>924.3999999999999</v>
+        <v>958.3999999999999</v>
       </c>
       <c r="AJ153">
         <v>1508.6</v>
@@ -57412,7 +57412,7 @@
         <v>0</v>
       </c>
       <c r="AU153">
-        <v>779.3939999999999</v>
+        <v>812.6969999999999</v>
       </c>
       <c r="AV153">
         <v>1194.4</v>
@@ -57448,7 +57448,7 @@
         <v>0</v>
       </c>
       <c r="BG153">
-        <v>145.006</v>
+        <v>145.703</v>
       </c>
       <c r="BH153">
         <v>314.2</v>
@@ -57756,7 +57756,7 @@
         <v>1768.2</v>
       </c>
       <c r="AI154">
-        <v>951.5</v>
+        <v>987.8</v>
       </c>
       <c r="AJ154">
         <v>1535.1</v>
@@ -57792,7 +57792,7 @@
         <v>0</v>
       </c>
       <c r="AU154">
-        <v>801.9460000000001</v>
+        <v>837.5230000000001</v>
       </c>
       <c r="AV154">
         <v>1201.7</v>
@@ -57828,7 +57828,7 @@
         <v>0</v>
       </c>
       <c r="BG154">
-        <v>149.554</v>
+        <v>150.277</v>
       </c>
       <c r="BH154">
         <v>333.4</v>
@@ -58136,7 +58136,7 @@
         <v>2113</v>
       </c>
       <c r="AI155">
-        <v>1278.3</v>
+        <v>1316.5</v>
       </c>
       <c r="AJ155">
         <v>1552.5</v>
@@ -58172,7 +58172,7 @@
         <v>0</v>
       </c>
       <c r="AU155">
-        <v>1124.608</v>
+        <v>1162.154</v>
       </c>
       <c r="AV155">
         <v>1191.3</v>
@@ -58208,7 +58208,7 @@
         <v>0</v>
       </c>
       <c r="BG155">
-        <v>153.692</v>
+        <v>154.346</v>
       </c>
       <c r="BH155">
         <v>361.1</v>
@@ -58516,7 +58516,7 @@
         <v>1905.3</v>
       </c>
       <c r="AI156">
-        <v>1040.4</v>
+        <v>1098.6</v>
       </c>
       <c r="AJ156">
         <v>1497.5</v>
@@ -58552,7 +58552,7 @@
         <v>0</v>
       </c>
       <c r="AU156">
-        <v>893.9680000000001</v>
+        <v>936.6840000000001</v>
       </c>
       <c r="AV156">
         <v>1173.7</v>
@@ -58588,7 +58588,7 @@
         <v>0</v>
       </c>
       <c r="BG156">
-        <v>146.432</v>
+        <v>161.916</v>
       </c>
       <c r="BH156">
         <v>323.8</v>
@@ -58896,7 +58896,7 @@
         <v>1890.8</v>
       </c>
       <c r="AI157">
-        <v>1002.6</v>
+        <v>1074.5</v>
       </c>
       <c r="AJ157">
         <v>1444.9</v>
@@ -58932,7 +58932,7 @@
         <v>0</v>
       </c>
       <c r="AU157">
-        <v>845.7579999999999</v>
+        <v>899.9789999999999</v>
       </c>
       <c r="AV157">
         <v>1139.8</v>
@@ -58968,7 +58968,7 @@
         <v>0</v>
       </c>
       <c r="BG157">
-        <v>156.842</v>
+        <v>174.521</v>
       </c>
       <c r="BH157">
         <v>305.1</v>
@@ -59276,7 +59276,7 @@
         <v>2001.9</v>
       </c>
       <c r="AI158">
-        <v>1059</v>
+        <v>1160.6</v>
       </c>
       <c r="AJ158">
         <v>1202.4</v>
@@ -59312,7 +59312,7 @@
         <v>0</v>
       </c>
       <c r="AU158">
-        <v>895.39</v>
+        <v>967.145</v>
       </c>
       <c r="AV158">
         <v>921.2</v>
@@ -59348,7 +59348,7 @@
         <v>0</v>
       </c>
       <c r="BG158">
-        <v>163.71</v>
+        <v>193.5549999999999</v>
       </c>
       <c r="BH158">
         <v>281.1</v>
@@ -59656,7 +59656,7 @@
         <v>2140</v>
       </c>
       <c r="AI159">
-        <v>1150.4</v>
+        <v>1280.7</v>
       </c>
       <c r="AJ159">
         <v>1131.1</v>
@@ -59692,7 +59692,7 @@
         <v>0</v>
       </c>
       <c r="AU159">
-        <v>970.8520000000001</v>
+        <v>1064.226</v>
       </c>
       <c r="AV159">
         <v>855.5</v>
@@ -59728,7 +59728,7 @@
         <v>0</v>
       </c>
       <c r="BG159">
-        <v>179.548</v>
+        <v>216.474</v>
       </c>
       <c r="BH159">
         <v>275.6</v>
@@ -60036,7 +60036,7 @@
         <v>2136.9</v>
       </c>
       <c r="AI160">
-        <v>1117.6</v>
+        <v>1262</v>
       </c>
       <c r="AJ160">
         <v>1135.3</v>
@@ -60072,7 +60072,7 @@
         <v>0</v>
       </c>
       <c r="AU160">
-        <v>946.352</v>
+        <v>1042.076</v>
       </c>
       <c r="AV160">
         <v>842</v>
@@ -60108,7 +60108,7 @@
         <v>0</v>
       </c>
       <c r="BG160">
-        <v>171.248</v>
+        <v>219.924</v>
       </c>
       <c r="BH160">
         <v>293.3</v>
@@ -60416,7 +60416,7 @@
         <v>2152.1</v>
       </c>
       <c r="AI161">
-        <v>1128.9</v>
+        <v>1277.5</v>
       </c>
       <c r="AJ161">
         <v>1140.7</v>
@@ -60452,7 +60452,7 @@
         <v>0</v>
       </c>
       <c r="AU161">
-        <v>987.8800000000002</v>
+        <v>1069.99</v>
       </c>
       <c r="AV161">
         <v>847.5</v>
@@ -60488,7 +60488,7 @@
         <v>0</v>
       </c>
       <c r="BG161">
-        <v>141.0199999999999</v>
+        <v>207.5099999999999</v>
       </c>
       <c r="BH161">
         <v>293.3</v>
@@ -60796,7 +60796,7 @@
         <v>2262.2</v>
       </c>
       <c r="AI162">
-        <v>1214.8</v>
+        <v>1374.1</v>
       </c>
       <c r="AJ162">
         <v>1191.8</v>
@@ -60832,7 +60832,7 @@
         <v>0</v>
       </c>
       <c r="AU162">
-        <v>1113.636</v>
+        <v>1180.568</v>
       </c>
       <c r="AV162">
         <v>903.4</v>
@@ -60868,7 +60868,7 @@
         <v>0</v>
       </c>
       <c r="BG162">
-        <v>101.1639999999999</v>
+        <v>193.5319999999999</v>
       </c>
       <c r="BH162">
         <v>288.4</v>
@@ -61176,7 +61176,7 @@
         <v>2268.7</v>
       </c>
       <c r="AI163">
-        <v>1231.3</v>
+        <v>1372.5</v>
       </c>
       <c r="AJ163">
         <v>1213.2</v>
@@ -61212,7 +61212,7 @@
         <v>0</v>
       </c>
       <c r="AU163">
-        <v>1115.266</v>
+        <v>1180.233</v>
       </c>
       <c r="AV163">
         <v>935.2</v>
@@ -61248,7 +61248,7 @@
         <v>0</v>
       </c>
       <c r="BG163">
-        <v>116.034</v>
+        <v>192.267</v>
       </c>
       <c r="BH163">
         <v>278</v>
@@ -61556,7 +61556,7 @@
         <v>2292</v>
       </c>
       <c r="AI164">
-        <v>1239.7</v>
+        <v>1370.7</v>
       </c>
       <c r="AJ164">
         <v>1256.3</v>
@@ -61592,7 +61592,7 @@
         <v>0</v>
       </c>
       <c r="AU164">
-        <v>1103.026</v>
+        <v>1173.063</v>
       </c>
       <c r="AV164">
         <v>958.5</v>
@@ -61628,7 +61628,7 @@
         <v>0</v>
       </c>
       <c r="BG164">
-        <v>136.6740000000001</v>
+        <v>197.6370000000001</v>
       </c>
       <c r="BH164">
         <v>297.8</v>
@@ -61936,7 +61936,7 @@
         <v>2302.7</v>
       </c>
       <c r="AI165">
-        <v>1243.3</v>
+        <v>1367.2</v>
       </c>
       <c r="AJ165">
         <v>1289.1</v>
@@ -61972,7 +61972,7 @@
         <v>0</v>
       </c>
       <c r="AU165">
-        <v>1107.114</v>
+        <v>1173.807</v>
       </c>
       <c r="AV165">
         <v>977.2</v>
@@ -62008,7 +62008,7 @@
         <v>0</v>
       </c>
       <c r="BG165">
-        <v>136.1859999999999</v>
+        <v>193.3929999999999</v>
       </c>
       <c r="BH165">
         <v>311.9</v>
@@ -62316,7 +62316,7 @@
         <v>2313</v>
       </c>
       <c r="AI166">
-        <v>1249.9</v>
+        <v>1366.6</v>
       </c>
       <c r="AJ166">
         <v>1426.6</v>
@@ -62352,7 +62352,7 @@
         <v>0</v>
       </c>
       <c r="AU166">
-        <v>1118.736</v>
+        <v>1179.868</v>
       </c>
       <c r="AV166">
         <v>1111.4</v>
@@ -62388,7 +62388,7 @@
         <v>0</v>
       </c>
       <c r="BG166">
-        <v>131.1639999999999</v>
+        <v>186.7319999999999</v>
       </c>
       <c r="BH166">
         <v>315.2</v>
@@ -62696,7 +62696,7 @@
         <v>2312.1</v>
       </c>
       <c r="AI167">
-        <v>1259.7</v>
+        <v>1369</v>
       </c>
       <c r="AJ167">
         <v>1445.9</v>
@@ -62732,7 +62732,7 @@
         <v>0</v>
       </c>
       <c r="AU167">
-        <v>1129.696</v>
+        <v>1186.848</v>
       </c>
       <c r="AV167">
         <v>1126.5</v>
@@ -62768,7 +62768,7 @@
         <v>0</v>
       </c>
       <c r="BG167">
-        <v>130.0040000000001</v>
+        <v>182.1520000000001</v>
       </c>
       <c r="BH167">
         <v>319.4</v>
@@ -63076,7 +63076,7 @@
         <v>2303.2</v>
       </c>
       <c r="AI168">
-        <v>1265.4</v>
+        <v>1368.3</v>
       </c>
       <c r="AJ168">
         <v>1471.4</v>
@@ -63112,7 +63112,7 @@
         <v>0</v>
       </c>
       <c r="AU168">
-        <v>1133.904</v>
+        <v>1188.902</v>
       </c>
       <c r="AV168">
         <v>1144.2</v>
@@ -63148,7 +63148,7 @@
         <v>0</v>
       </c>
       <c r="BG168">
-        <v>131.3960000000001</v>
+        <v>179.2980000000001</v>
       </c>
       <c r="BH168">
         <v>327.2</v>
@@ -63456,7 +63456,7 @@
         <v>2312.2</v>
       </c>
       <c r="AI169">
-        <v>1270.2</v>
+        <v>1370</v>
       </c>
       <c r="AJ169">
         <v>1470.9</v>
@@ -63492,7 +63492,7 @@
         <v>0</v>
       </c>
       <c r="AU169">
-        <v>1137.998</v>
+        <v>1192.199</v>
       </c>
       <c r="AV169">
         <v>1141</v>
@@ -63528,7 +63528,7 @@
         <v>0</v>
       </c>
       <c r="BG169">
-        <v>132.202</v>
+        <v>177.801</v>
       </c>
       <c r="BH169">
         <v>329.9</v>
@@ -63836,7 +63836,7 @@
         <v>2296.8</v>
       </c>
       <c r="AI170">
-        <v>1254.6</v>
+        <v>1349.2</v>
       </c>
       <c r="AJ170">
         <v>1468.3</v>
@@ -63872,7 +63872,7 @@
         <v>0</v>
       </c>
       <c r="AU170">
-        <v>1125.974</v>
+        <v>1175.937</v>
       </c>
       <c r="AV170">
         <v>1138.3</v>
@@ -63908,7 +63908,7 @@
         <v>0</v>
       </c>
       <c r="BG170">
-        <v>128.6259999999999</v>
+        <v>173.2629999999999</v>
       </c>
       <c r="BH170">
         <v>330.1</v>
@@ -64216,7 +64216,7 @@
         <v>2321.8</v>
       </c>
       <c r="AI171">
-        <v>1262.2</v>
+        <v>1348.5</v>
       </c>
       <c r="AJ171">
         <v>1487.7</v>
@@ -64252,7 +64252,7 @@
         <v>0</v>
       </c>
       <c r="AU171">
-        <v>1134.52</v>
+        <v>1180.21</v>
       </c>
       <c r="AV171">
         <v>1150.6</v>
@@ -64288,7 +64288,7 @@
         <v>0</v>
       </c>
       <c r="BG171">
-        <v>127.7799999999999</v>
+        <v>168.3899999999999</v>
       </c>
       <c r="BH171">
         <v>337</v>
@@ -64596,7 +64596,7 @@
         <v>2325.6</v>
       </c>
       <c r="AI172">
-        <v>1271.1</v>
+        <v>1349.5</v>
       </c>
       <c r="AJ172">
         <v>1510</v>
@@ -64632,7 +64632,7 @@
         <v>0</v>
       </c>
       <c r="AU172">
-        <v>1141.108</v>
+        <v>1183.804</v>
       </c>
       <c r="AV172">
         <v>1163.8</v>
@@ -64668,7 +64668,7 @@
         <v>0</v>
       </c>
       <c r="BG172">
-        <v>129.992</v>
+        <v>165.696</v>
       </c>
       <c r="BH172">
         <v>346.2</v>
@@ -64976,7 +64976,7 @@
         <v>2346.1</v>
       </c>
       <c r="AI173">
-        <v>1278.7</v>
+        <v>1353.8</v>
       </c>
       <c r="AJ173">
         <v>1572</v>
@@ -65012,7 +65012,7 @@
         <v>0</v>
       </c>
       <c r="AU173">
-        <v>1144.694</v>
+        <v>1187.347</v>
       </c>
       <c r="AV173">
         <v>1212.9</v>
@@ -65048,7 +65048,7 @@
         <v>0</v>
       </c>
       <c r="BG173">
-        <v>134.0060000000001</v>
+        <v>166.4530000000001</v>
       </c>
       <c r="BH173">
         <v>359.2</v>
@@ -65356,7 +65356,7 @@
         <v>2365.7</v>
       </c>
       <c r="AI174">
-        <v>1301.6</v>
+        <v>1370.6</v>
       </c>
       <c r="AJ174">
         <v>1650</v>
@@ -65392,7 +65392,7 @@
         <v>0</v>
       </c>
       <c r="AU174">
-        <v>1167.474</v>
+        <v>1207.237</v>
       </c>
       <c r="AV174">
         <v>1273.5</v>
@@ -65428,7 +65428,7 @@
         <v>0</v>
       </c>
       <c r="BG174">
-        <v>134.126</v>
+        <v>163.363</v>
       </c>
       <c r="BH174">
         <v>376.5</v>
@@ -65736,7 +65736,7 @@
         <v>2378.3</v>
       </c>
       <c r="AI175">
-        <v>1308</v>
+        <v>1372.8</v>
       </c>
       <c r="AJ175">
         <v>1682.5</v>
@@ -65772,7 +65772,7 @@
         <v>0</v>
       </c>
       <c r="AU175">
-        <v>1170.186</v>
+        <v>1209.293</v>
       </c>
       <c r="AV175">
         <v>1296.4</v>
@@ -65808,7 +65808,7 @@
         <v>0</v>
       </c>
       <c r="BG175">
-        <v>137.814</v>
+        <v>163.5069999999999</v>
       </c>
       <c r="BH175">
         <v>386.1</v>
@@ -66116,7 +66116,7 @@
         <v>2396</v>
       </c>
       <c r="AI176">
-        <v>1315</v>
+        <v>1374.1</v>
       </c>
       <c r="AJ176">
         <v>1674.9</v>
@@ -66152,7 +66152,7 @@
         <v>0</v>
       </c>
       <c r="AU176">
-        <v>1172.49</v>
+        <v>1210.995</v>
       </c>
       <c r="AV176">
         <v>1308.3</v>
@@ -66188,7 +66188,7 @@
         <v>0</v>
       </c>
       <c r="BG176">
-        <v>142.51</v>
+        <v>163.105</v>
       </c>
       <c r="BH176">
         <v>366.6</v>
@@ -66496,7 +66496,7 @@
         <v>2403.7</v>
       </c>
       <c r="AI177">
-        <v>1317.8</v>
+        <v>1374.9</v>
       </c>
       <c r="AJ177">
         <v>1698.1</v>
@@ -66532,7 +66532,7 @@
         <v>0</v>
       </c>
       <c r="AU177">
-        <v>1174.796</v>
+        <v>1212.348</v>
       </c>
       <c r="AV177">
         <v>1333.2</v>
@@ -66568,7 +66568,7 @@
         <v>0</v>
       </c>
       <c r="BG177">
-        <v>143.004</v>
+        <v>162.552</v>
       </c>
       <c r="BH177">
         <v>364.9</v>
@@ -66876,7 +66876,7 @@
         <v>2433.2</v>
       </c>
       <c r="AI178">
-        <v>1347.2</v>
+        <v>1386.2</v>
       </c>
       <c r="AJ178">
         <v>1744.8</v>
@@ -66912,7 +66912,7 @@
         <v>0</v>
       </c>
       <c r="AU178">
-        <v>1186.126</v>
+        <v>1223.363</v>
       </c>
       <c r="AV178">
         <v>1369.1</v>
@@ -66948,7 +66948,7 @@
         <v>0</v>
       </c>
       <c r="BG178">
-        <v>161.074</v>
+        <v>162.837</v>
       </c>
       <c r="BH178">
         <v>375.7</v>
@@ -67256,7 +67256,7 @@
         <v>2484.5</v>
       </c>
       <c r="AI179">
-        <v>1371.6</v>
+        <v>1407.4</v>
       </c>
       <c r="AJ179">
         <v>1758.4</v>
@@ -67292,7 +67292,7 @@
         <v>0</v>
       </c>
       <c r="AU179">
-        <v>1211.314</v>
+        <v>1246.257</v>
       </c>
       <c r="AV179">
         <v>1389</v>
@@ -67328,7 +67328,7 @@
         <v>0</v>
       </c>
       <c r="BG179">
-        <v>160.3859999999999</v>
+        <v>161.2429999999999</v>
       </c>
       <c r="BH179">
         <v>369.4</v>
@@ -67636,7 +67636,7 @@
         <v>2524.6</v>
       </c>
       <c r="AI180">
-        <v>1379.4</v>
+        <v>1413.4</v>
       </c>
       <c r="AJ180">
         <v>1798.6</v>
@@ -67672,7 +67672,7 @@
         <v>0</v>
       </c>
       <c r="AU180">
-        <v>1220.098</v>
+        <v>1253.299</v>
       </c>
       <c r="AV180">
         <v>1413.3</v>
@@ -67708,7 +67708,7 @@
         <v>0</v>
       </c>
       <c r="BG180">
-        <v>159.302</v>
+        <v>160.1010000000001</v>
       </c>
       <c r="BH180">
         <v>385.3</v>
@@ -68016,7 +68016,7 @@
         <v>2552.1</v>
       </c>
       <c r="AI181">
-        <v>1391</v>
+        <v>1424</v>
       </c>
       <c r="AJ181">
         <v>1836.5</v>
@@ -68052,7 +68052,7 @@
         <v>0</v>
       </c>
       <c r="AU181">
-        <v>1231.782</v>
+        <v>1263.991</v>
       </c>
       <c r="AV181">
         <v>1443.5</v>
@@ -68088,7 +68088,7 @@
         <v>0</v>
       </c>
       <c r="BG181">
-        <v>159.3180000000002</v>
+        <v>160.1090000000002</v>
       </c>
       <c r="BH181">
         <v>393</v>
@@ -68396,7 +68396,7 @@
         <v>2597.7</v>
       </c>
       <c r="AI182">
-        <v>1418.8</v>
+        <v>1451.7</v>
       </c>
       <c r="AJ182">
         <v>1904.6</v>
@@ -68432,7 +68432,7 @@
         <v>0</v>
       </c>
       <c r="AU182">
-        <v>1258.794</v>
+        <v>1290.947</v>
       </c>
       <c r="AV182">
         <v>1509.1</v>
@@ -68468,7 +68468,7 @@
         <v>0</v>
       </c>
       <c r="BG182">
-        <v>160.006</v>
+        <v>160.753</v>
       </c>
       <c r="BH182">
         <v>395.4</v>
@@ -68776,7 +68776,7 @@
         <v>2633.9</v>
       </c>
       <c r="AI183">
-        <v>1432.1</v>
+        <v>1464.5</v>
       </c>
       <c r="AJ183">
         <v>1943</v>
@@ -68812,7 +68812,7 @@
         <v>0</v>
       </c>
       <c r="AU183">
-        <v>1271.698</v>
+        <v>1303.399</v>
       </c>
       <c r="AV183">
         <v>1527.7</v>
@@ -68848,7 +68848,7 @@
         <v>0</v>
       </c>
       <c r="BG183">
-        <v>160.402</v>
+        <v>161.101</v>
       </c>
       <c r="BH183">
         <v>415.3</v>
@@ -69156,7 +69156,7 @@
         <v>2647.8</v>
       </c>
       <c r="AI184">
-        <v>1435.4</v>
+        <v>1467.9</v>
       </c>
       <c r="AJ184">
         <v>1947.3</v>
@@ -69192,7 +69192,7 @@
         <v>0</v>
       </c>
       <c r="AU184">
-        <v>1274.422</v>
+        <v>1306.261</v>
       </c>
       <c r="AV184">
         <v>1540.9</v>
@@ -69228,7 +69228,7 @@
         <v>0</v>
       </c>
       <c r="BG184">
-        <v>160.978</v>
+        <v>161.639</v>
       </c>
       <c r="BH184">
         <v>406.5</v>
@@ -69536,7 +69536,7 @@
         <v>2661.2</v>
       </c>
       <c r="AI185">
-        <v>1440.6</v>
+        <v>1473</v>
       </c>
       <c r="AJ185">
         <v>1964.9</v>
@@ -69572,7 +69572,7 @@
         <v>0</v>
       </c>
       <c r="AU185">
-        <v>1279.776</v>
+        <v>1311.538</v>
       </c>
       <c r="AV185">
         <v>1552.6</v>
@@ -69608,7 +69608,7 @@
         <v>0</v>
       </c>
       <c r="BG185">
-        <v>160.824</v>
+        <v>161.462</v>
       </c>
       <c r="BH185">
         <v>412.3</v>
@@ -69916,7 +69916,7 @@
         <v>2686.1</v>
       </c>
       <c r="AI186">
-        <v>1450.6</v>
+        <v>1483.2</v>
       </c>
       <c r="AJ186">
         <v>1925</v>
@@ -69952,7 +69952,7 @@
         <v>0</v>
       </c>
       <c r="AU186">
-        <v>1289.95</v>
+        <v>1321.875</v>
       </c>
       <c r="AV186">
         <v>1526.7</v>
@@ -69988,7 +69988,7 @@
         <v>0</v>
       </c>
       <c r="BG186">
-        <v>160.6499999999999</v>
+        <v>161.3249999999999</v>
       </c>
       <c r="BH186">
         <v>398.3</v>
@@ -70296,7 +70296,7 @@
         <v>2706.6</v>
       </c>
       <c r="AI187">
-        <v>1456.5</v>
+        <v>1489.1</v>
       </c>
       <c r="AJ187">
         <v>1945.2</v>
@@ -70332,7 +70332,7 @@
         <v>0</v>
       </c>
       <c r="AU187">
-        <v>1295.816</v>
+        <v>1327.808</v>
       </c>
       <c r="AV187">
         <v>1536.7</v>
@@ -70368,7 +70368,7 @@
         <v>0</v>
       </c>
       <c r="BG187">
-        <v>160.6840000000001</v>
+        <v>161.2920000000001</v>
       </c>
       <c r="BH187">
         <v>408.4</v>
@@ -70676,7 +70676,7 @@
         <v>2726.2</v>
       </c>
       <c r="AI188">
-        <v>1462.2</v>
+        <v>1494.6</v>
       </c>
       <c r="AJ188">
         <v>1971</v>
@@ -70712,7 +70712,7 @@
         <v>0</v>
       </c>
       <c r="AU188">
-        <v>1300.768</v>
+        <v>1332.584</v>
       </c>
       <c r="AV188">
         <v>1553.8</v>
@@ -70748,7 +70748,7 @@
         <v>0</v>
       </c>
       <c r="BG188">
-        <v>161.4320000000001</v>
+        <v>162.0160000000001</v>
       </c>
       <c r="BH188">
         <v>417.2</v>
@@ -71056,7 +71056,7 @@
         <v>2749.6</v>
       </c>
       <c r="AI189">
-        <v>1470.7</v>
+        <v>1502.2</v>
       </c>
       <c r="AJ189">
         <v>1990.4</v>
@@ -71092,7 +71092,7 @@
         <v>0</v>
       </c>
       <c r="AU189">
-        <v>1309.814</v>
+        <v>1340.757</v>
       </c>
       <c r="AV189">
         <v>1574.6</v>
@@ -71128,7 +71128,7 @@
         <v>0</v>
       </c>
       <c r="BG189">
-        <v>160.8860000000001</v>
+        <v>161.443</v>
       </c>
       <c r="BH189">
         <v>415.8</v>
@@ -71436,7 +71436,7 @@
         <v>2778.8</v>
       </c>
       <c r="AI190">
-        <v>1496</v>
+        <v>1526.9</v>
       </c>
       <c r="AJ190">
         <v>2001.1</v>
@@ -71472,7 +71472,7 @@
         <v>0</v>
       </c>
       <c r="AU190">
-        <v>1334.828</v>
+        <v>1365.214</v>
       </c>
       <c r="AV190">
         <v>1581.1</v>
@@ -71508,7 +71508,7 @@
         <v>0</v>
       </c>
       <c r="BG190">
-        <v>161.172</v>
+        <v>161.686</v>
       </c>
       <c r="BH190">
         <v>420</v>
@@ -71816,7 +71816,7 @@
         <v>2789.3</v>
       </c>
       <c r="AI191">
-        <v>1503.7</v>
+        <v>1533.9</v>
       </c>
       <c r="AJ191">
         <v>2005.6</v>
@@ -71852,7 +71852,7 @@
         <v>0</v>
       </c>
       <c r="AU191">
-        <v>1342.168</v>
+        <v>1371.834</v>
       </c>
       <c r="AV191">
         <v>1601.7</v>
@@ -71888,7 +71888,7 @@
         <v>0</v>
       </c>
       <c r="BG191">
-        <v>161.532</v>
+        <v>162.066</v>
       </c>
       <c r="BH191">
         <v>403.9</v>
@@ -72196,7 +72196,7 @@
         <v>2822.2</v>
       </c>
       <c r="AI192">
-        <v>1516.8</v>
+        <v>1547.1</v>
       </c>
       <c r="AJ192">
         <v>2052.3</v>
@@ -72232,7 +72232,7 @@
         <v>0</v>
       </c>
       <c r="AU192">
-        <v>1350.678</v>
+        <v>1380.489</v>
       </c>
       <c r="AV192">
         <v>1625</v>
@@ -72268,7 +72268,7 @@
         <v>0</v>
       </c>
       <c r="BG192">
-        <v>166.1220000000001</v>
+        <v>166.6110000000001</v>
       </c>
       <c r="BH192">
         <v>427.3</v>
@@ -72576,7 +72576,7 @@
         <v>2834.7</v>
       </c>
       <c r="AI193">
-        <v>1523.3</v>
+        <v>1553.1</v>
       </c>
       <c r="AJ193">
         <v>2127.9</v>
@@ -72612,7 +72612,7 @@
         <v>0</v>
       </c>
       <c r="AU193">
-        <v>1359.772</v>
+        <v>1389.136</v>
       </c>
       <c r="AV193">
         <v>1650.8</v>
@@ -72648,7 +72648,7 @@
         <v>0</v>
       </c>
       <c r="BG193">
-        <v>163.428</v>
+        <v>163.864</v>
       </c>
       <c r="BH193">
         <v>477</v>
@@ -72956,7 +72956,7 @@
         <v>2890.9</v>
       </c>
       <c r="AI194">
-        <v>1563.8</v>
+        <v>1593</v>
       </c>
       <c r="AJ194">
         <v>2085.6</v>
@@ -72992,7 +72992,7 @@
         <v>0</v>
       </c>
       <c r="AU194">
-        <v>1399.702</v>
+        <v>1428.501</v>
       </c>
       <c r="AV194">
         <v>1598.6</v>
@@ -73028,7 +73028,7 @@
         <v>0</v>
       </c>
       <c r="BG194">
-        <v>164.098</v>
+        <v>164.499</v>
       </c>
       <c r="BH194">
         <v>487</v>
@@ -73336,7 +73336,7 @@
         <v>2916</v>
       </c>
       <c r="AI195">
-        <v>1568</v>
+        <v>1595.9</v>
       </c>
       <c r="AJ195">
         <v>2064.4</v>
@@ -73372,7 +73372,7 @@
         <v>0</v>
       </c>
       <c r="AU195">
-        <v>1404.216</v>
+        <v>1431.708</v>
       </c>
       <c r="AV195">
         <v>1608.9</v>
@@ -73408,7 +73408,7 @@
         <v>0</v>
       </c>
       <c r="BG195">
-        <v>163.784</v>
+        <v>164.192</v>
       </c>
       <c r="BH195">
         <v>455.5</v>
@@ -73716,7 +73716,7 @@
         <v>2935.4</v>
       </c>
       <c r="AI196">
-        <v>1573</v>
+        <v>1600.4</v>
       </c>
       <c r="AJ196">
         <v>2100.5</v>
@@ -73752,7 +73752,7 @@
         <v>0</v>
       </c>
       <c r="AU196">
-        <v>1408.222</v>
+        <v>1435.211</v>
       </c>
       <c r="AV196">
         <v>1628.3</v>
@@ -73788,7 +73788,7 @@
         <v>0</v>
       </c>
       <c r="BG196">
-        <v>164.7779999999999</v>
+        <v>165.1889999999999</v>
       </c>
       <c r="BH196">
         <v>472.2</v>
@@ -74096,7 +74096,7 @@
         <v>2949.4</v>
       </c>
       <c r="AI197">
-        <v>1579.3</v>
+        <v>1606.3</v>
       </c>
       <c r="AJ197">
         <v>2090.7</v>
@@ -74132,7 +74132,7 @@
         <v>0</v>
       </c>
       <c r="AU197">
-        <v>1413.906</v>
+        <v>1440.553</v>
       </c>
       <c r="AV197">
         <v>1634.2</v>
@@ -74168,7 +74168,7 @@
         <v>0</v>
       </c>
       <c r="BG197">
-        <v>165.294</v>
+        <v>165.647</v>
       </c>
       <c r="BH197">
         <v>456.5</v>
@@ -74476,7 +74476,7 @@
         <v>3037.5</v>
       </c>
       <c r="AI198">
-        <v>1642.7</v>
+        <v>1670.7</v>
       </c>
       <c r="AJ198">
         <v>2170.7</v>
@@ -74512,7 +74512,7 @@
         <v>0</v>
       </c>
       <c r="AU198">
-        <v>1476.286</v>
+        <v>1503.843</v>
       </c>
       <c r="AV198">
         <v>1695.5</v>
@@ -74548,7 +74548,7 @@
         <v>0</v>
       </c>
       <c r="BG198">
-        <v>166.4140000000001</v>
+        <v>166.8570000000001</v>
       </c>
       <c r="BH198">
         <v>475.2</v>
@@ -74856,7 +74856,7 @@
         <v>3071</v>
       </c>
       <c r="AI199">
-        <v>1648.8</v>
+        <v>1676.3</v>
       </c>
       <c r="AJ199">
         <v>2222.5</v>
@@ -74892,7 +74892,7 @@
         <v>0</v>
       </c>
       <c r="AU199">
-        <v>1481.91</v>
+        <v>1509.005</v>
       </c>
       <c r="AV199">
         <v>1703.1</v>
@@ -74928,7 +74928,7 @@
         <v>0</v>
       </c>
       <c r="BG199">
-        <v>166.8900000000001</v>
+        <v>167.2950000000001</v>
       </c>
       <c r="BH199">
         <v>519.4</v>
@@ -75236,7 +75236,7 @@
         <v>3094.8</v>
       </c>
       <c r="AI200">
-        <v>1655</v>
+        <v>1682.6</v>
       </c>
       <c r="AJ200">
         <v>2197.1</v>
@@ -75272,7 +75272,7 @@
         <v>0</v>
       </c>
       <c r="AU200">
-        <v>1487.106</v>
+        <v>1514.303</v>
       </c>
       <c r="AV200">
         <v>1713.2</v>
@@ -75308,7 +75308,7 @@
         <v>0</v>
       </c>
       <c r="BG200">
-        <v>167.8940000000001</v>
+        <v>168.2970000000001</v>
       </c>
       <c r="BH200">
         <v>483.9</v>
@@ -75616,7 +75616,7 @@
         <v>3108.7</v>
       </c>
       <c r="AI201">
-        <v>1663.5</v>
+        <v>1691.4</v>
       </c>
       <c r="AJ201">
         <v>2221.2</v>
@@ -75652,7 +75652,7 @@
         <v>0</v>
       </c>
       <c r="AU201">
-        <v>1494.816</v>
+        <v>1522.308</v>
       </c>
       <c r="AV201">
         <v>1740.2</v>
@@ -75688,7 +75688,7 @@
         <v>0</v>
       </c>
       <c r="BG201">
-        <v>168.684</v>
+        <v>169.092</v>
       </c>
       <c r="BH201">
         <v>480.9</v>
@@ -75996,7 +75996,7 @@
         <v>3189.6</v>
       </c>
       <c r="AI202">
-        <v>1717.4</v>
+        <v>1760.8</v>
       </c>
       <c r="AJ202">
         <v>2252.4</v>
@@ -76032,7 +76032,7 @@
         <v>0</v>
       </c>
       <c r="AU202">
-        <v>1531.758</v>
+        <v>1574.779</v>
       </c>
       <c r="AV202">
         <v>1756.6</v>
@@ -76068,7 +76068,7 @@
         <v>0</v>
       </c>
       <c r="BG202">
-        <v>185.642</v>
+        <v>186.021</v>
       </c>
       <c r="BH202">
         <v>495.8</v>
@@ -76376,7 +76376,7 @@
         <v>5627.4</v>
       </c>
       <c r="AI203">
-        <v>1971.8</v>
+        <v>3056.4</v>
       </c>
       <c r="AJ203">
         <v>2095.7</v>
@@ -76412,7 +76412,7 @@
         <v>1078.1</v>
       </c>
       <c r="AU203">
-        <v>1557.212000000001</v>
+        <v>3697.656000000001</v>
       </c>
       <c r="AV203">
         <v>1599.3</v>
@@ -76448,7 +76448,7 @@
         <v>0</v>
       </c>
       <c r="BG203">
-        <v>414.6880000000003</v>
+        <v>436.9440000000002</v>
       </c>
       <c r="BH203">
         <v>496.4</v>
@@ -76756,7 +76756,7 @@
         <v>4357.4</v>
       </c>
       <c r="AI204">
-        <v>2028.6</v>
+        <v>2800.1</v>
       </c>
       <c r="AJ204">
         <v>2191.8</v>
@@ -76792,7 +76792,7 @@
         <v>15.6</v>
       </c>
       <c r="AU204">
-        <v>1193.226000000001</v>
+        <v>1939.963000000001</v>
       </c>
       <c r="AV204">
         <v>1686.4</v>
@@ -76828,7 +76828,7 @@
         <v>0</v>
       </c>
       <c r="BG204">
-        <v>835.3740000000001</v>
+        <v>875.7370000000002</v>
       </c>
       <c r="BH204">
         <v>505.4</v>
@@ -77133,7 +77133,7 @@
         <v>4084.244006383561</v>
       </c>
       <c r="AI205">
-        <v>2190.858647263116</v>
+        <v>2528.658647263116</v>
       </c>
       <c r="AJ205">
         <v>2209.356316549763</v>
@@ -77169,7 +77169,7 @@
         <v>0</v>
       </c>
       <c r="AU205">
-        <v>1417.859962513135</v>
+        <v>1675.659962513135</v>
       </c>
       <c r="AV205">
         <v>1693.736276116348</v>
@@ -77205,7 +77205,7 @@
         <v>0</v>
       </c>
       <c r="BG205">
-        <v>772.9986847499807</v>
+        <v>852.9986847499807</v>
       </c>
       <c r="BH205">
         <v>515.6200404334143</v>
@@ -77519,7 +77519,7 @@
         <v>3867.862916187507</v>
       </c>
       <c r="AI206">
-        <v>2054.392197946618</v>
+        <v>2298.392197946618</v>
       </c>
       <c r="AJ206">
         <v>2225.244106429406</v>
@@ -77555,7 +77555,7 @@
         <v>0</v>
       </c>
       <c r="AU206">
-        <v>1284.121986340407</v>
+        <v>1468.121986340407</v>
       </c>
       <c r="AV206">
         <v>1701.072552232697</v>
@@ -77591,7 +77591,7 @@
         <v>0</v>
       </c>
       <c r="BG206">
-        <v>770.2702116062113</v>
+        <v>830.2702116062113</v>
       </c>
       <c r="BH206">
         <v>524.1715541967095</v>
@@ -77905,7 +77905,7 @@
         <v>3692.359326507944</v>
       </c>
       <c r="AI207">
-        <v>1957.00324914661</v>
+        <v>2109.00324914661</v>
       </c>
       <c r="AJ207">
         <v>2240.915466001915</v>
@@ -77941,7 +77941,7 @@
         <v>0</v>
       </c>
       <c r="AU207">
-        <v>1193.451643972652</v>
+        <v>1301.451643972652</v>
       </c>
       <c r="AV207">
         <v>1708.408828349045</v>
@@ -77977,7 +77977,7 @@
         <v>0</v>
       </c>
       <c r="BG207">
-        <v>763.5516051739577</v>
+        <v>807.5516051739577</v>
       </c>
       <c r="BH207">
         <v>532.5066376528702</v>
@@ -78291,7 +78291,7 @@
         <v>3571.960712378625</v>
       </c>
       <c r="AI208">
-        <v>1930.719275896845</v>
+        <v>1974.719275896845</v>
       </c>
       <c r="AJ208">
         <v>2257.160617551478</v>
@@ -78363,7 +78363,7 @@
         <v>0</v>
       </c>
       <c r="BG208">
-        <v>744.8093328160583</v>
+        <v>788.8093328160583</v>
       </c>
       <c r="BH208">
         <v>541.4155130860853</v>
@@ -78677,7 +78677,7 @@
         <v>3652.377934288124</v>
       </c>
       <c r="AI209">
-        <v>1979.189977463624</v>
+        <v>2023.189977463624</v>
       </c>
       <c r="AJ209">
         <v>2284.640284594805</v>
@@ -78749,7 +78749,7 @@
         <v>0</v>
       </c>
       <c r="BG209">
-        <v>764.7878334010979</v>
+        <v>808.7878334010979</v>
       </c>
       <c r="BH209">
         <v>547.3824463211569</v>
@@ -79063,7 +79063,7 @@
         <v>3714.140878107185</v>
       </c>
       <c r="AI210">
-        <v>2009.006400939963</v>
+        <v>2053.006400939963</v>
       </c>
       <c r="AJ210">
         <v>2311.614108710991</v>
@@ -79135,7 +79135,7 @@
         <v>0</v>
       </c>
       <c r="BG210">
-        <v>788.8721971429638</v>
+        <v>832.8721971429638</v>
       </c>
       <c r="BH210">
         <v>552.8435366290881</v>
@@ -79449,7 +79449,7 @@
         <v>3762.454941683361</v>
       </c>
       <c r="AI211">
-        <v>2025.373944173418</v>
+        <v>2069.373944173418</v>
       </c>
       <c r="AJ211">
         <v>2338.532566934654</v>
@@ -79521,7 +79521,7 @@
         <v>0</v>
       </c>
       <c r="BG211">
-        <v>813.9832615220251</v>
+        <v>857.9832615220251</v>
       </c>
       <c r="BH211">
         <v>558.2492610444967</v>
@@ -79835,7 +79835,7 @@
         <v>3789.036096691753</v>
       </c>
       <c r="AI212">
-        <v>2020.008578839089</v>
+        <v>2064.008578839089</v>
       </c>
       <c r="AJ212">
         <v>2365.697655043192</v>
@@ -79907,7 +79907,7 @@
         <v>0</v>
       </c>
       <c r="BG212">
-        <v>837.4054535174263</v>
+        <v>881.4054535174263</v>
       </c>
       <c r="BH212">
         <v>563.9016153447795</v>
